--- a/ACSDining.Web/ExcelFiles/Paiments.xlsx
+++ b/ACSDining.Web/ExcelFiles/Paiments.xlsx
@@ -1,17 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Столовка\ACSDining\ACSDining.Web\ExcelFiles\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="96" yWindow="60" windowWidth="19968" windowHeight="11208"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="10215"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
-    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
-    <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -184,6 +192,7 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -258,6 +267,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -273,39 +285,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -340,7 +352,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -384,166 +396,142 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="35000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="80000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="40000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
@@ -553,26 +541,26 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="6.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="6.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="6.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="6.5546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="6.5546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="21" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="5.5703125" bestFit="1" customWidth="1"/>
     <col min="23" max="24" width="8" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="4.5546875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="3.5546875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="3.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -622,7 +610,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:26" ht="73.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="4" t="s">
@@ -690,7 +678,7 @@
       <c r="Y2" s="3"/>
       <c r="Z2" s="3"/>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="2" t="s">
@@ -720,75 +708,75 @@
       <c r="Y3" s="1"/>
       <c r="Z3" s="1"/>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="9">
-        <v>5.8</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="D4" s="9">
-        <v>4.9000000000000004</v>
+        <v>11.9</v>
       </c>
       <c r="E4" s="9">
-        <v>12.5</v>
+        <v>3.5</v>
       </c>
       <c r="F4" s="9">
+        <v>0.9</v>
+      </c>
+      <c r="G4" s="9">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="H4" s="9">
+        <v>11.9</v>
+      </c>
+      <c r="I4" s="9">
+        <v>3.5</v>
+      </c>
+      <c r="J4" s="9">
+        <v>0.9</v>
+      </c>
+      <c r="K4" s="9">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="L4" s="9">
+        <v>12.9</v>
+      </c>
+      <c r="M4" s="9">
+        <v>3.5</v>
+      </c>
+      <c r="N4" s="9">
+        <v>0.9</v>
+      </c>
+      <c r="O4" s="9">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="P4" s="9">
+        <v>11.9</v>
+      </c>
+      <c r="Q4" s="9">
+        <v>3.5</v>
+      </c>
+      <c r="R4" s="9">
+        <v>0.9</v>
+      </c>
+      <c r="S4" s="9">
+        <v>5.3</v>
+      </c>
+      <c r="T4" s="9">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="U4" s="9">
         <v>7.6</v>
       </c>
-      <c r="G4" s="9">
-        <v>0.9</v>
-      </c>
-      <c r="H4" s="9">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="I4" s="9">
-        <v>11.9</v>
-      </c>
-      <c r="J4" s="9">
-        <v>3.4</v>
-      </c>
-      <c r="K4" s="9">
-        <v>0.9</v>
-      </c>
-      <c r="L4" s="9">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="M4" s="9">
-        <v>11.9</v>
-      </c>
-      <c r="N4" s="9">
-        <v>3.5</v>
-      </c>
-      <c r="O4" s="9">
-        <v>0.9</v>
-      </c>
-      <c r="P4" s="9">
-        <v>5.8</v>
-      </c>
-      <c r="Q4" s="9">
-        <v>12.5</v>
-      </c>
-      <c r="R4" s="9">
-        <v>3.5</v>
-      </c>
-      <c r="S4" s="9">
-        <v>0.9</v>
-      </c>
-      <c r="T4" s="9">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="U4" s="9">
-        <v>11.9</v>
-      </c>
       <c r="V4" s="9">
-        <v>3.5</v>
+        <v>0.9</v>
       </c>
       <c r="W4" s="10"/>
       <c r="X4" s="10"/>
       <c r="Y4" s="10"/>
       <c r="Z4" s="10"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>1</v>
       </c>
@@ -796,77 +784,77 @@
         <v>16</v>
       </c>
       <c r="C5" s="11">
-        <v>2.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="D5" s="11">
-        <v>2.4500000000000002</v>
+        <v>11.9</v>
       </c>
       <c r="E5" s="11">
-        <v>25</v>
+        <v>3.5</v>
       </c>
       <c r="F5" s="11">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="G5" s="11">
-        <v>0.9</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="H5" s="11">
-        <v>4.9000000000000004</v>
+        <v>11.9</v>
       </c>
       <c r="I5" s="11">
-        <v>11.9</v>
+        <v>0</v>
       </c>
       <c r="J5" s="11">
         <v>0</v>
       </c>
       <c r="K5" s="11">
-        <v>0</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="L5" s="11">
-        <v>4.9000000000000004</v>
+        <v>0</v>
       </c>
       <c r="M5" s="11">
-        <v>11.9</v>
+        <v>3.5</v>
       </c>
       <c r="N5" s="11">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="O5" s="11">
-        <v>0</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="P5" s="11">
-        <v>2.9</v>
+        <v>0</v>
       </c>
       <c r="Q5" s="11">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="R5" s="11">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="S5" s="11">
-        <v>0</v>
+        <v>2.65</v>
       </c>
       <c r="T5" s="11">
-        <v>4.9000000000000004</v>
+        <v>0</v>
       </c>
       <c r="U5" s="11">
-        <v>11.9</v>
+        <v>0</v>
       </c>
       <c r="V5" s="11">
-        <v>3.5</v>
+        <v>0.9</v>
       </c>
       <c r="W5" s="11">
-        <v>0</v>
+        <v>50.849999999999994</v>
       </c>
       <c r="X5" s="11">
-        <v>100.7</v>
+        <v>50.75</v>
       </c>
       <c r="Y5" s="11">
         <v>0</v>
       </c>
       <c r="Z5" s="11"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>2</v>
       </c>
@@ -874,58 +862,58 @@
         <v>17</v>
       </c>
       <c r="C6" s="9">
-        <v>5.8</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="D6" s="9">
-        <v>4.9000000000000004</v>
+        <v>23.8</v>
       </c>
       <c r="E6" s="9">
-        <v>25</v>
+        <v>3.5</v>
       </c>
       <c r="F6" s="9">
-        <v>7.6</v>
+        <v>0</v>
       </c>
       <c r="G6" s="9">
-        <v>0.9</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="H6" s="9">
-        <v>2.4500000000000002</v>
+        <v>11.9</v>
       </c>
       <c r="I6" s="9">
-        <v>11.9</v>
+        <v>3.5</v>
       </c>
       <c r="J6" s="9">
         <v>0</v>
       </c>
       <c r="K6" s="9">
-        <v>0</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="L6" s="9">
-        <v>2.4500000000000002</v>
+        <v>12.9</v>
       </c>
       <c r="M6" s="9">
-        <v>11.9</v>
+        <v>3.5</v>
       </c>
       <c r="N6" s="9">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="O6" s="9">
-        <v>0</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="P6" s="9">
-        <v>5.8</v>
+        <v>0</v>
       </c>
       <c r="Q6" s="9">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="R6" s="9">
         <v>0</v>
       </c>
       <c r="S6" s="9">
-        <v>0.9</v>
+        <v>2.65</v>
       </c>
       <c r="T6" s="9">
-        <v>4.9000000000000004</v>
+        <v>18.399999999999999</v>
       </c>
       <c r="U6" s="9">
         <v>0</v>
@@ -934,17 +922,17 @@
         <v>0</v>
       </c>
       <c r="W6" s="9">
-        <v>0</v>
+        <v>99.250000000000028</v>
       </c>
       <c r="X6" s="9">
-        <v>77.8</v>
+        <v>13.25</v>
       </c>
       <c r="Y6" s="9">
-        <v>0</v>
+        <v>-86</v>
       </c>
       <c r="Z6" s="9"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>3</v>
       </c>
@@ -952,77 +940,77 @@
         <v>18</v>
       </c>
       <c r="C7" s="11">
-        <v>5.8</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="D7" s="11">
-        <v>4.9000000000000004</v>
+        <v>0</v>
       </c>
       <c r="E7" s="11">
-        <v>12.5</v>
+        <v>3.5</v>
       </c>
       <c r="F7" s="11">
+        <v>0</v>
+      </c>
+      <c r="G7" s="11">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="H7" s="11">
+        <v>0</v>
+      </c>
+      <c r="I7" s="11">
+        <v>0</v>
+      </c>
+      <c r="J7" s="11">
+        <v>0.9</v>
+      </c>
+      <c r="K7" s="11">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="L7" s="11">
+        <v>12.9</v>
+      </c>
+      <c r="M7" s="11">
+        <v>0</v>
+      </c>
+      <c r="N7" s="11">
+        <v>0.9</v>
+      </c>
+      <c r="O7" s="11">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="P7" s="11">
+        <v>11.9</v>
+      </c>
+      <c r="Q7" s="11">
+        <v>0</v>
+      </c>
+      <c r="R7" s="11">
+        <v>0</v>
+      </c>
+      <c r="S7" s="11">
+        <v>0</v>
+      </c>
+      <c r="T7" s="11">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="U7" s="11">
         <v>7.6</v>
       </c>
-      <c r="G7" s="11">
-        <v>0.9</v>
-      </c>
-      <c r="H7" s="11">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="I7" s="11">
-        <v>11.9</v>
-      </c>
-      <c r="J7" s="11">
-        <v>0</v>
-      </c>
-      <c r="K7" s="11">
-        <v>0.9</v>
-      </c>
-      <c r="L7" s="11">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="M7" s="11">
-        <v>23.8</v>
-      </c>
-      <c r="N7" s="11">
-        <v>3.5</v>
-      </c>
-      <c r="O7" s="11">
-        <v>0.9</v>
-      </c>
-      <c r="P7" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="11">
-        <v>12.5</v>
-      </c>
-      <c r="R7" s="11">
-        <v>3.5</v>
-      </c>
-      <c r="S7" s="11">
-        <v>0</v>
-      </c>
-      <c r="T7" s="11">
-        <v>2.4500000000000002</v>
-      </c>
-      <c r="U7" s="11">
-        <v>23.8</v>
-      </c>
       <c r="V7" s="11">
-        <v>3.5</v>
+        <v>0.9</v>
       </c>
       <c r="W7" s="11">
-        <v>0.9</v>
+        <v>60.05</v>
       </c>
       <c r="X7" s="11">
-        <v>123.35</v>
+        <v>59.949999999999996</v>
       </c>
       <c r="Y7" s="11">
         <v>0</v>
       </c>
       <c r="Z7" s="11"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>4</v>
       </c>
@@ -1030,77 +1018,77 @@
         <v>19</v>
       </c>
       <c r="C8" s="9">
-        <v>2.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="D8" s="9">
-        <v>2.4500000000000002</v>
+        <v>23.8</v>
       </c>
       <c r="E8" s="9">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="F8" s="9">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="G8" s="9">
-        <v>0</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="H8" s="9">
-        <v>4.9000000000000004</v>
+        <v>11.9</v>
       </c>
       <c r="I8" s="9">
-        <v>11.9</v>
+        <v>0</v>
       </c>
       <c r="J8" s="9">
         <v>0</v>
       </c>
       <c r="K8" s="9">
-        <v>0.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="L8" s="9">
-        <v>4.9000000000000004</v>
+        <v>12.9</v>
       </c>
       <c r="M8" s="9">
         <v>0</v>
       </c>
       <c r="N8" s="9">
-        <v>3.5</v>
+        <v>0.9</v>
       </c>
       <c r="O8" s="9">
-        <v>0.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="P8" s="9">
-        <v>2.9</v>
+        <v>0</v>
       </c>
       <c r="Q8" s="9">
-        <v>12.5</v>
+        <v>3.5</v>
       </c>
       <c r="R8" s="9">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="S8" s="9">
-        <v>0.9</v>
+        <v>5.3</v>
       </c>
       <c r="T8" s="9">
-        <v>4.9000000000000004</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="U8" s="9">
-        <v>23.8</v>
+        <v>7.6</v>
       </c>
       <c r="V8" s="9">
         <v>0</v>
       </c>
       <c r="W8" s="9">
-        <v>0.9</v>
+        <v>96.500000000000014</v>
       </c>
       <c r="X8" s="9">
-        <v>87.4</v>
+        <v>96.5</v>
       </c>
       <c r="Y8" s="9">
         <v>0</v>
       </c>
       <c r="Z8" s="9"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>5</v>
       </c>
@@ -1108,77 +1096,77 @@
         <v>20</v>
       </c>
       <c r="C9" s="11">
-        <v>2.9</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="D9" s="11">
-        <v>2.4500000000000002</v>
+        <v>11.9</v>
       </c>
       <c r="E9" s="11">
-        <v>25</v>
+        <v>3.5</v>
       </c>
       <c r="F9" s="11">
+        <v>0.9</v>
+      </c>
+      <c r="G9" s="11">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="H9" s="11">
+        <v>11.9</v>
+      </c>
+      <c r="I9" s="11">
+        <v>3.5</v>
+      </c>
+      <c r="J9" s="11">
+        <v>0.9</v>
+      </c>
+      <c r="K9" s="11">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="L9" s="11">
+        <v>12.9</v>
+      </c>
+      <c r="M9" s="11">
+        <v>0</v>
+      </c>
+      <c r="N9" s="11">
+        <v>0.9</v>
+      </c>
+      <c r="O9" s="11">
+        <v>0</v>
+      </c>
+      <c r="P9" s="11">
+        <v>11.9</v>
+      </c>
+      <c r="Q9" s="11">
+        <v>3.5</v>
+      </c>
+      <c r="R9" s="11">
+        <v>0</v>
+      </c>
+      <c r="S9" s="11">
+        <v>5.3</v>
+      </c>
+      <c r="T9" s="11">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="U9" s="11">
         <v>7.6</v>
       </c>
-      <c r="G9" s="11">
-        <v>0</v>
-      </c>
-      <c r="H9" s="11">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="I9" s="11">
-        <v>11.9</v>
-      </c>
-      <c r="J9" s="11">
-        <v>3.4</v>
-      </c>
-      <c r="K9" s="11">
-        <v>0.9</v>
-      </c>
-      <c r="L9" s="11">
-        <v>2.4500000000000002</v>
-      </c>
-      <c r="M9" s="11">
-        <v>0</v>
-      </c>
-      <c r="N9" s="11">
-        <v>0</v>
-      </c>
-      <c r="O9" s="11">
-        <v>0</v>
-      </c>
-      <c r="P9" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="11">
-        <v>0</v>
-      </c>
-      <c r="R9" s="11">
-        <v>3.5</v>
-      </c>
-      <c r="S9" s="11">
-        <v>0</v>
-      </c>
-      <c r="T9" s="11">
-        <v>0</v>
-      </c>
-      <c r="U9" s="11">
-        <v>23.8</v>
-      </c>
       <c r="V9" s="11">
-        <v>3.5</v>
+        <v>0.9</v>
       </c>
       <c r="W9" s="11">
-        <v>0.9</v>
+        <v>97.05</v>
       </c>
       <c r="X9" s="11">
-        <v>90.3</v>
+        <v>101.05</v>
       </c>
       <c r="Y9" s="11">
         <v>0</v>
       </c>
       <c r="Z9" s="11"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>6</v>
       </c>
@@ -1186,77 +1174,77 @@
         <v>21</v>
       </c>
       <c r="C10" s="9">
-        <v>5.8</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="D10" s="9">
-        <v>4.9000000000000004</v>
+        <v>0</v>
       </c>
       <c r="E10" s="9">
-        <v>12.5</v>
+        <v>3.5</v>
       </c>
       <c r="F10" s="9">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="G10" s="9">
-        <v>0</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="H10" s="9">
-        <v>4.9000000000000004</v>
+        <v>11.9</v>
       </c>
       <c r="I10" s="9">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="J10" s="9">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="K10" s="9">
-        <v>0.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="L10" s="9">
-        <v>0</v>
+        <v>12.9</v>
       </c>
       <c r="M10" s="9">
-        <v>11.9</v>
+        <v>0</v>
       </c>
       <c r="N10" s="9">
-        <v>3.5</v>
+        <v>0.9</v>
       </c>
       <c r="O10" s="9">
-        <v>0</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="P10" s="9">
-        <v>5.8</v>
+        <v>11.9</v>
       </c>
       <c r="Q10" s="9">
-        <v>12.5</v>
+        <v>3.5</v>
       </c>
       <c r="R10" s="9">
-        <v>3.5</v>
+        <v>0.9</v>
       </c>
       <c r="S10" s="9">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="T10" s="9">
-        <v>0</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="U10" s="9">
-        <v>11.9</v>
+        <v>7.6</v>
       </c>
       <c r="V10" s="9">
-        <v>3.5</v>
+        <v>0.9</v>
       </c>
       <c r="W10" s="9">
-        <v>0</v>
+        <v>85.65</v>
       </c>
       <c r="X10" s="9">
-        <v>75.8</v>
+        <v>89.65</v>
       </c>
       <c r="Y10" s="9">
         <v>0</v>
       </c>
       <c r="Z10" s="9"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>7</v>
       </c>
@@ -1264,77 +1252,77 @@
         <v>22</v>
       </c>
       <c r="C11" s="11">
-        <v>5.8</v>
+        <v>0</v>
       </c>
       <c r="D11" s="11">
-        <v>4.9000000000000004</v>
+        <v>0</v>
       </c>
       <c r="E11" s="11">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="F11" s="11">
         <v>0</v>
       </c>
       <c r="G11" s="11">
-        <v>0.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="H11" s="11">
-        <v>2.4500000000000002</v>
+        <v>11.9</v>
       </c>
       <c r="I11" s="11">
-        <v>11.9</v>
+        <v>3.5</v>
       </c>
       <c r="J11" s="11">
         <v>0</v>
       </c>
       <c r="K11" s="11">
-        <v>0</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="L11" s="11">
-        <v>2.4500000000000002</v>
+        <v>12.9</v>
       </c>
       <c r="M11" s="11">
-        <v>11.9</v>
+        <v>0</v>
       </c>
       <c r="N11" s="11">
-        <v>3.5</v>
+        <v>0.9</v>
       </c>
       <c r="O11" s="11">
-        <v>0.9</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="P11" s="11">
-        <v>2.9</v>
+        <v>23.8</v>
       </c>
       <c r="Q11" s="11">
-        <v>12.5</v>
+        <v>3.5</v>
       </c>
       <c r="R11" s="11">
-        <v>3.5</v>
+        <v>0.9</v>
       </c>
       <c r="S11" s="11">
-        <v>0.9</v>
+        <v>5.3</v>
       </c>
       <c r="T11" s="11">
-        <v>4.9000000000000004</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="U11" s="11">
         <v>0</v>
       </c>
       <c r="V11" s="11">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="W11" s="11">
-        <v>0.9</v>
+        <v>87.65</v>
       </c>
       <c r="X11" s="11">
-        <v>67.55</v>
+        <v>91.65</v>
       </c>
       <c r="Y11" s="11">
         <v>0</v>
       </c>
       <c r="Z11" s="11"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>8</v>
       </c>
@@ -1342,77 +1330,77 @@
         <v>23</v>
       </c>
       <c r="C12" s="9">
-        <v>5.8</v>
+        <v>0</v>
       </c>
       <c r="D12" s="9">
-        <v>4.9000000000000004</v>
+        <v>0</v>
       </c>
       <c r="E12" s="9">
-        <v>12.5</v>
+        <v>3.5</v>
       </c>
       <c r="F12" s="9">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="G12" s="9">
-        <v>0</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="H12" s="9">
-        <v>4.9000000000000004</v>
+        <v>11.9</v>
       </c>
       <c r="I12" s="9">
-        <v>11.9</v>
+        <v>0</v>
       </c>
       <c r="J12" s="9">
-        <v>3.4</v>
+        <v>0.9</v>
       </c>
       <c r="K12" s="9">
-        <v>0.9</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="L12" s="9">
-        <v>4.9000000000000004</v>
+        <v>25.8</v>
       </c>
       <c r="M12" s="9">
         <v>0</v>
       </c>
       <c r="N12" s="9">
-        <v>3.5</v>
+        <v>0.9</v>
       </c>
       <c r="O12" s="9">
-        <v>0</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="P12" s="9">
-        <v>2.9</v>
+        <v>11.9</v>
       </c>
       <c r="Q12" s="9">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="R12" s="9">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="S12" s="9">
-        <v>0</v>
+        <v>5.3</v>
       </c>
       <c r="T12" s="9">
-        <v>0</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="U12" s="9">
-        <v>23.8</v>
+        <v>0</v>
       </c>
       <c r="V12" s="9">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="W12" s="9">
-        <v>0.9</v>
+        <v>83.45</v>
       </c>
       <c r="X12" s="9">
-        <v>90.05</v>
+        <v>83.35</v>
       </c>
       <c r="Y12" s="9">
         <v>0</v>
       </c>
       <c r="Z12" s="9"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>9</v>
       </c>
@@ -1420,77 +1408,77 @@
         <v>24</v>
       </c>
       <c r="C13" s="11">
-        <v>5.8</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="D13" s="11">
-        <v>4.9000000000000004</v>
+        <v>11.9</v>
       </c>
       <c r="E13" s="11">
         <v>0</v>
       </c>
       <c r="F13" s="11">
+        <v>0.9</v>
+      </c>
+      <c r="G13" s="11">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="H13" s="11">
+        <v>11.9</v>
+      </c>
+      <c r="I13" s="11">
+        <v>0</v>
+      </c>
+      <c r="J13" s="11">
+        <v>0</v>
+      </c>
+      <c r="K13" s="11">
+        <v>0</v>
+      </c>
+      <c r="L13" s="11">
+        <v>12.9</v>
+      </c>
+      <c r="M13" s="11">
+        <v>3.5</v>
+      </c>
+      <c r="N13" s="11">
+        <v>0.9</v>
+      </c>
+      <c r="O13" s="11">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="P13" s="11">
+        <v>23.8</v>
+      </c>
+      <c r="Q13" s="11">
+        <v>0</v>
+      </c>
+      <c r="R13" s="11">
+        <v>0.9</v>
+      </c>
+      <c r="S13" s="11">
+        <v>0</v>
+      </c>
+      <c r="T13" s="11">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="U13" s="11">
         <v>7.6</v>
       </c>
-      <c r="G13" s="11">
-        <v>0.9</v>
-      </c>
-      <c r="H13" s="11">
-        <v>2.4500000000000002</v>
-      </c>
-      <c r="I13" s="11">
-        <v>11.9</v>
-      </c>
-      <c r="J13" s="11">
-        <v>3.4</v>
-      </c>
-      <c r="K13" s="11">
-        <v>0</v>
-      </c>
-      <c r="L13" s="11">
-        <v>2.4500000000000002</v>
-      </c>
-      <c r="M13" s="11">
-        <v>11.9</v>
-      </c>
-      <c r="N13" s="11">
-        <v>3.5</v>
-      </c>
-      <c r="O13" s="11">
-        <v>0</v>
-      </c>
-      <c r="P13" s="11">
-        <v>5.8</v>
-      </c>
-      <c r="Q13" s="11">
-        <v>0</v>
-      </c>
-      <c r="R13" s="11">
-        <v>3.5</v>
-      </c>
-      <c r="S13" s="11">
-        <v>0</v>
-      </c>
-      <c r="T13" s="11">
-        <v>2.4500000000000002</v>
-      </c>
-      <c r="U13" s="11">
-        <v>0</v>
-      </c>
       <c r="V13" s="11">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="W13" s="11">
-        <v>0</v>
+        <v>98.2</v>
       </c>
       <c r="X13" s="11">
-        <v>63.35</v>
+        <v>98.2</v>
       </c>
       <c r="Y13" s="11">
         <v>0</v>
       </c>
       <c r="Z13" s="11"/>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>10</v>
       </c>
@@ -1498,77 +1486,77 @@
         <v>25</v>
       </c>
       <c r="C14" s="9">
-        <v>5.8</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="D14" s="9">
-        <v>4.9000000000000004</v>
+        <v>0</v>
       </c>
       <c r="E14" s="9">
         <v>0</v>
       </c>
       <c r="F14" s="9">
+        <v>0.9</v>
+      </c>
+      <c r="G14" s="9">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="H14" s="9">
+        <v>0</v>
+      </c>
+      <c r="I14" s="9">
+        <v>3.5</v>
+      </c>
+      <c r="J14" s="9">
+        <v>0.9</v>
+      </c>
+      <c r="K14" s="9">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="L14" s="9">
+        <v>12.9</v>
+      </c>
+      <c r="M14" s="9">
+        <v>0</v>
+      </c>
+      <c r="N14" s="9">
+        <v>0</v>
+      </c>
+      <c r="O14" s="9">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="P14" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="9">
+        <v>0</v>
+      </c>
+      <c r="R14" s="9">
+        <v>0.9</v>
+      </c>
+      <c r="S14" s="9">
+        <v>0</v>
+      </c>
+      <c r="T14" s="9">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="U14" s="9">
         <v>7.6</v>
       </c>
-      <c r="G14" s="9">
-        <v>0.9</v>
-      </c>
-      <c r="H14" s="9">
-        <v>2.4500000000000002</v>
-      </c>
-      <c r="I14" s="9">
-        <v>11.9</v>
-      </c>
-      <c r="J14" s="9">
-        <v>0</v>
-      </c>
-      <c r="K14" s="9">
-        <v>0</v>
-      </c>
-      <c r="L14" s="9">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="M14" s="9">
-        <v>0</v>
-      </c>
-      <c r="N14" s="9">
-        <v>0</v>
-      </c>
-      <c r="O14" s="9">
-        <v>0</v>
-      </c>
-      <c r="P14" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="9">
-        <v>12.5</v>
-      </c>
-      <c r="R14" s="9">
-        <v>3.5</v>
-      </c>
-      <c r="S14" s="9">
-        <v>0.9</v>
-      </c>
-      <c r="T14" s="9">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="U14" s="9">
-        <v>11.9</v>
-      </c>
       <c r="V14" s="9">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="W14" s="9">
-        <v>0</v>
+        <v>53.050000000000004</v>
       </c>
       <c r="X14" s="9">
-        <v>69.849999999999994</v>
+        <v>57.149999999999991</v>
       </c>
       <c r="Y14" s="9">
         <v>0</v>
       </c>
       <c r="Z14" s="9"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>11</v>
       </c>
@@ -1576,77 +1564,77 @@
         <v>26</v>
       </c>
       <c r="C15" s="11">
-        <v>2.9</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="D15" s="11">
-        <v>2.4500000000000002</v>
+        <v>0</v>
       </c>
       <c r="E15" s="11">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="F15" s="11">
-        <v>7.6</v>
+        <v>0</v>
       </c>
       <c r="G15" s="11">
-        <v>0</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="H15" s="11">
-        <v>4.9000000000000004</v>
+        <v>11.9</v>
       </c>
       <c r="I15" s="11">
-        <v>11.9</v>
+        <v>3.5</v>
       </c>
       <c r="J15" s="11">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="K15" s="11">
-        <v>0.9</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="L15" s="11">
-        <v>2.4500000000000002</v>
+        <v>12.9</v>
       </c>
       <c r="M15" s="11">
-        <v>11.9</v>
+        <v>3.5</v>
       </c>
       <c r="N15" s="11">
-        <v>3.5</v>
+        <v>0.9</v>
       </c>
       <c r="O15" s="11">
-        <v>0.9</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="P15" s="11">
-        <v>2.9</v>
+        <v>23.8</v>
       </c>
       <c r="Q15" s="11">
-        <v>12.5</v>
+        <v>3.5</v>
       </c>
       <c r="R15" s="11">
         <v>0</v>
       </c>
       <c r="S15" s="11">
-        <v>0.9</v>
+        <v>5.3</v>
       </c>
       <c r="T15" s="11">
-        <v>4.9000000000000004</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="U15" s="11">
-        <v>11.9</v>
+        <v>0</v>
       </c>
       <c r="V15" s="11">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="W15" s="11">
-        <v>0</v>
+        <v>85.2</v>
       </c>
       <c r="X15" s="11">
-        <v>95.149999999999991</v>
+        <v>89.3</v>
       </c>
       <c r="Y15" s="11">
         <v>0</v>
       </c>
       <c r="Z15" s="11"/>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>12</v>
       </c>
@@ -1654,77 +1642,77 @@
         <v>27</v>
       </c>
       <c r="C16" s="9">
-        <v>2.9</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="D16" s="9">
-        <v>2.4500000000000002</v>
+        <v>0</v>
       </c>
       <c r="E16" s="9">
         <v>0</v>
       </c>
       <c r="F16" s="9">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="G16" s="9">
-        <v>0</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="H16" s="9">
-        <v>4.9000000000000004</v>
+        <v>11.9</v>
       </c>
       <c r="I16" s="9">
-        <v>11.9</v>
+        <v>3.5</v>
       </c>
       <c r="J16" s="9">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="K16" s="9">
-        <v>0</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="L16" s="9">
-        <v>2.4500000000000002</v>
+        <v>0</v>
       </c>
       <c r="M16" s="9">
-        <v>23.8</v>
+        <v>3.5</v>
       </c>
       <c r="N16" s="9">
         <v>0</v>
       </c>
       <c r="O16" s="9">
-        <v>0</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="P16" s="9">
-        <v>5.8</v>
+        <v>0</v>
       </c>
       <c r="Q16" s="9">
-        <v>12.5</v>
+        <v>3.5</v>
       </c>
       <c r="R16" s="9">
-        <v>3.5</v>
+        <v>0.9</v>
       </c>
       <c r="S16" s="9">
-        <v>0</v>
+        <v>5.3</v>
       </c>
       <c r="T16" s="9">
-        <v>4.9000000000000004</v>
+        <v>0</v>
       </c>
       <c r="U16" s="9">
-        <v>11.9</v>
+        <v>0</v>
       </c>
       <c r="V16" s="9">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="W16" s="9">
-        <v>0.9</v>
+        <v>45.099999999999994</v>
       </c>
       <c r="X16" s="9">
-        <v>87.600000000000009</v>
+        <v>49.2</v>
       </c>
       <c r="Y16" s="9">
         <v>0</v>
       </c>
       <c r="Z16" s="9"/>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>13</v>
       </c>
@@ -1732,77 +1720,77 @@
         <v>28</v>
       </c>
       <c r="C17" s="11">
-        <v>5.8</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="D17" s="11">
-        <v>4.9000000000000004</v>
+        <v>11.9</v>
       </c>
       <c r="E17" s="11">
-        <v>12.5</v>
+        <v>3.5</v>
       </c>
       <c r="F17" s="11">
-        <v>7.6</v>
+        <v>0</v>
       </c>
       <c r="G17" s="11">
         <v>0</v>
       </c>
       <c r="H17" s="11">
-        <v>2.4500000000000002</v>
+        <v>0</v>
       </c>
       <c r="I17" s="11">
-        <v>11.9</v>
+        <v>3.5</v>
       </c>
       <c r="J17" s="11">
-        <v>3.4</v>
+        <v>0</v>
       </c>
       <c r="K17" s="11">
-        <v>0</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="L17" s="11">
-        <v>4.9000000000000004</v>
+        <v>0</v>
       </c>
       <c r="M17" s="11">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="N17" s="11">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="O17" s="11">
-        <v>0</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="P17" s="11">
-        <v>0</v>
+        <v>11.9</v>
       </c>
       <c r="Q17" s="11">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="R17" s="11">
         <v>0</v>
       </c>
       <c r="S17" s="11">
-        <v>0</v>
+        <v>2.65</v>
       </c>
       <c r="T17" s="11">
-        <v>2.4500000000000002</v>
+        <v>0</v>
       </c>
       <c r="U17" s="11">
-        <v>11.9</v>
+        <v>0</v>
       </c>
       <c r="V17" s="11">
-        <v>3.5</v>
+        <v>0.9</v>
       </c>
       <c r="W17" s="11">
-        <v>0</v>
+        <v>56.05</v>
       </c>
       <c r="X17" s="11">
-        <v>69</v>
+        <v>60.05</v>
       </c>
       <c r="Y17" s="11">
         <v>0</v>
       </c>
       <c r="Z17" s="11"/>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <v>14</v>
       </c>
@@ -1810,77 +1798,77 @@
         <v>29</v>
       </c>
       <c r="C18" s="9">
-        <v>5.8</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="D18" s="9">
-        <v>4.9000000000000004</v>
+        <v>11.9</v>
       </c>
       <c r="E18" s="9">
         <v>0</v>
       </c>
       <c r="F18" s="9">
+        <v>0.9</v>
+      </c>
+      <c r="G18" s="9">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="H18" s="9">
+        <v>11.9</v>
+      </c>
+      <c r="I18" s="9">
+        <v>3.5</v>
+      </c>
+      <c r="J18" s="9">
+        <v>0.9</v>
+      </c>
+      <c r="K18" s="9">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="L18" s="9">
+        <v>12.9</v>
+      </c>
+      <c r="M18" s="9">
+        <v>3.5</v>
+      </c>
+      <c r="N18" s="9">
+        <v>0.9</v>
+      </c>
+      <c r="O18" s="9">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="P18" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="9">
+        <v>3.5</v>
+      </c>
+      <c r="R18" s="9">
+        <v>0.9</v>
+      </c>
+      <c r="S18" s="9">
+        <v>5.3</v>
+      </c>
+      <c r="T18" s="9">
+        <v>0</v>
+      </c>
+      <c r="U18" s="9">
         <v>7.6</v>
       </c>
-      <c r="G18" s="9">
-        <v>0.9</v>
-      </c>
-      <c r="H18" s="9">
-        <v>2.4500000000000002</v>
-      </c>
-      <c r="I18" s="9">
-        <v>11.9</v>
-      </c>
-      <c r="J18" s="9">
-        <v>3.4</v>
-      </c>
-      <c r="K18" s="9">
-        <v>0</v>
-      </c>
-      <c r="L18" s="9">
-        <v>2.4500000000000002</v>
-      </c>
-      <c r="M18" s="9">
-        <v>11.9</v>
-      </c>
-      <c r="N18" s="9">
-        <v>0</v>
-      </c>
-      <c r="O18" s="9">
-        <v>0</v>
-      </c>
-      <c r="P18" s="9">
-        <v>5.8</v>
-      </c>
-      <c r="Q18" s="9">
-        <v>0</v>
-      </c>
-      <c r="R18" s="9">
-        <v>3.5</v>
-      </c>
-      <c r="S18" s="9">
-        <v>0.9</v>
-      </c>
-      <c r="T18" s="9">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="U18" s="9">
-        <v>0</v>
-      </c>
       <c r="V18" s="9">
-        <v>3.5</v>
+        <v>0.9</v>
       </c>
       <c r="W18" s="9">
-        <v>0.9</v>
+        <v>76.850000000000009</v>
       </c>
       <c r="X18" s="9">
-        <v>64.099999999999994</v>
+        <v>80.949999999999989</v>
       </c>
       <c r="Y18" s="9">
         <v>0</v>
       </c>
       <c r="Z18" s="9"/>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>15</v>
       </c>
@@ -1888,77 +1876,77 @@
         <v>30</v>
       </c>
       <c r="C19" s="11">
-        <v>0</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="D19" s="11">
-        <v>0</v>
+        <v>11.9</v>
       </c>
       <c r="E19" s="11">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="F19" s="11">
-        <v>7.6</v>
+        <v>0.9</v>
       </c>
       <c r="G19" s="11">
-        <v>0.9</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="H19" s="11">
-        <v>0</v>
+        <v>11.9</v>
       </c>
       <c r="I19" s="11">
-        <v>11.9</v>
+        <v>3.5</v>
       </c>
       <c r="J19" s="11">
-        <v>3.4</v>
+        <v>0.9</v>
       </c>
       <c r="K19" s="11">
-        <v>0.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="L19" s="11">
-        <v>4.9000000000000004</v>
+        <v>12.9</v>
       </c>
       <c r="M19" s="11">
-        <v>11.9</v>
+        <v>0</v>
       </c>
       <c r="N19" s="11">
-        <v>3.5</v>
+        <v>0.9</v>
       </c>
       <c r="O19" s="11">
-        <v>0.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="P19" s="11">
-        <v>2.9</v>
+        <v>0</v>
       </c>
       <c r="Q19" s="11">
-        <v>12.5</v>
+        <v>3.5</v>
       </c>
       <c r="R19" s="11">
-        <v>3.5</v>
+        <v>0.9</v>
       </c>
       <c r="S19" s="11">
-        <v>0</v>
+        <v>2.65</v>
       </c>
       <c r="T19" s="11">
         <v>0</v>
       </c>
       <c r="U19" s="11">
-        <v>23.8</v>
+        <v>0</v>
       </c>
       <c r="V19" s="11">
-        <v>3.5</v>
+        <v>0.9</v>
       </c>
       <c r="W19" s="11">
-        <v>0.9</v>
+        <v>71.5</v>
       </c>
       <c r="X19" s="11">
-        <v>92.55</v>
+        <v>75.5</v>
       </c>
       <c r="Y19" s="11">
         <v>0</v>
       </c>
       <c r="Z19" s="11"/>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
         <v>16</v>
       </c>
@@ -1966,77 +1954,77 @@
         <v>31</v>
       </c>
       <c r="C20" s="9">
-        <v>5.8</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="D20" s="9">
-        <v>4.9000000000000004</v>
+        <v>0</v>
       </c>
       <c r="E20" s="9">
-        <v>12.5</v>
+        <v>3.5</v>
       </c>
       <c r="F20" s="9">
-        <v>7.6</v>
+        <v>0.9</v>
       </c>
       <c r="G20" s="9">
-        <v>0</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="H20" s="9">
-        <v>0</v>
+        <v>11.9</v>
       </c>
       <c r="I20" s="9">
-        <v>11.9</v>
+        <v>0</v>
       </c>
       <c r="J20" s="9">
-        <v>3.4</v>
+        <v>0.9</v>
       </c>
       <c r="K20" s="9">
-        <v>0</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="L20" s="9">
         <v>0</v>
       </c>
       <c r="M20" s="9">
-        <v>11.9</v>
+        <v>0</v>
       </c>
       <c r="N20" s="9">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="O20" s="9">
-        <v>0</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="P20" s="9">
-        <v>0</v>
+        <v>11.9</v>
       </c>
       <c r="Q20" s="9">
-        <v>12.5</v>
+        <v>3.5</v>
       </c>
       <c r="R20" s="9">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="S20" s="9">
-        <v>0</v>
+        <v>5.3</v>
       </c>
       <c r="T20" s="9">
-        <v>2.4500000000000002</v>
+        <v>0</v>
       </c>
       <c r="U20" s="9">
-        <v>11.9</v>
+        <v>0</v>
       </c>
       <c r="V20" s="9">
-        <v>3.5</v>
+        <v>0.9</v>
       </c>
       <c r="W20" s="9">
-        <v>0</v>
+        <v>56.849999999999987</v>
       </c>
       <c r="X20" s="9">
-        <v>86.049999999999983</v>
+        <v>56.750000000000007</v>
       </c>
       <c r="Y20" s="9">
         <v>0</v>
       </c>
       <c r="Z20" s="9"/>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>17</v>
       </c>
@@ -2044,77 +2032,77 @@
         <v>32</v>
       </c>
       <c r="C21" s="11">
-        <v>5.8</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="D21" s="11">
-        <v>4.9000000000000004</v>
+        <v>11.9</v>
       </c>
       <c r="E21" s="11">
         <v>0</v>
       </c>
       <c r="F21" s="11">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="G21" s="11">
-        <v>0</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="H21" s="11">
         <v>0</v>
       </c>
       <c r="I21" s="11">
-        <v>11.9</v>
+        <v>0</v>
       </c>
       <c r="J21" s="11">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="K21" s="11">
-        <v>0</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="L21" s="11">
-        <v>2.4500000000000002</v>
+        <v>12.9</v>
       </c>
       <c r="M21" s="11">
-        <v>11.9</v>
+        <v>0</v>
       </c>
       <c r="N21" s="11">
-        <v>3.5</v>
+        <v>0.9</v>
       </c>
       <c r="O21" s="11">
-        <v>0.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="P21" s="11">
-        <v>0</v>
+        <v>23.8</v>
       </c>
       <c r="Q21" s="11">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="R21" s="11">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="S21" s="11">
-        <v>0</v>
+        <v>5.3</v>
       </c>
       <c r="T21" s="11">
-        <v>4.9000000000000004</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="U21" s="11">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="V21" s="11">
         <v>0</v>
       </c>
       <c r="W21" s="11">
-        <v>0</v>
+        <v>96.499999999999986</v>
       </c>
       <c r="X21" s="11">
-        <v>43.949999999999996</v>
+        <v>96.5</v>
       </c>
       <c r="Y21" s="11">
         <v>0</v>
       </c>
       <c r="Z21" s="11"/>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
         <v>18</v>
       </c>
@@ -2128,52 +2116,52 @@
         <v>0</v>
       </c>
       <c r="E22" s="9">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="F22" s="9">
-        <v>7.6</v>
+        <v>0</v>
       </c>
       <c r="G22" s="9">
-        <v>0.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="H22" s="9">
-        <v>4.9000000000000004</v>
+        <v>11.9</v>
       </c>
       <c r="I22" s="9">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="J22" s="9">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="K22" s="9">
         <v>0</v>
       </c>
       <c r="L22" s="9">
-        <v>2.4500000000000002</v>
+        <v>12.9</v>
       </c>
       <c r="M22" s="9">
-        <v>11.9</v>
+        <v>3.5</v>
       </c>
       <c r="N22" s="9">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="O22" s="9">
-        <v>0</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="P22" s="9">
-        <v>0</v>
+        <v>11.9</v>
       </c>
       <c r="Q22" s="9">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="R22" s="9">
-        <v>3.5</v>
+        <v>0.9</v>
       </c>
       <c r="S22" s="9">
-        <v>0</v>
+        <v>5.3</v>
       </c>
       <c r="T22" s="9">
-        <v>4.9000000000000004</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="U22" s="9">
         <v>0</v>
@@ -2182,17 +2170,17 @@
         <v>0</v>
       </c>
       <c r="W22" s="9">
-        <v>0</v>
+        <v>74.2</v>
       </c>
       <c r="X22" s="9">
-        <v>48.65</v>
+        <v>78.199999999999989</v>
       </c>
       <c r="Y22" s="9">
         <v>0</v>
       </c>
       <c r="Z22" s="9"/>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>19</v>
       </c>
@@ -2200,77 +2188,77 @@
         <v>34</v>
       </c>
       <c r="C23" s="11">
-        <v>2.9</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="D23" s="11">
-        <v>2.4500000000000002</v>
+        <v>11.9</v>
       </c>
       <c r="E23" s="11">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="F23" s="11">
+        <v>0.9</v>
+      </c>
+      <c r="G23" s="11">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="H23" s="11">
+        <v>0</v>
+      </c>
+      <c r="I23" s="11">
+        <v>0</v>
+      </c>
+      <c r="J23" s="11">
+        <v>0.9</v>
+      </c>
+      <c r="K23" s="11">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="L23" s="11">
+        <v>0</v>
+      </c>
+      <c r="M23" s="11">
+        <v>0</v>
+      </c>
+      <c r="N23" s="11">
+        <v>0</v>
+      </c>
+      <c r="O23" s="11">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="P23" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="11">
+        <v>0</v>
+      </c>
+      <c r="R23" s="11">
+        <v>0</v>
+      </c>
+      <c r="S23" s="11">
+        <v>5.3</v>
+      </c>
+      <c r="T23" s="11">
+        <v>0</v>
+      </c>
+      <c r="U23" s="11">
         <v>7.6</v>
       </c>
-      <c r="G23" s="11">
-        <v>0.9</v>
-      </c>
-      <c r="H23" s="11">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="I23" s="11">
-        <v>11.9</v>
-      </c>
-      <c r="J23" s="11">
-        <v>3.4</v>
-      </c>
-      <c r="K23" s="11">
-        <v>0</v>
-      </c>
-      <c r="L23" s="11">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="M23" s="11">
-        <v>0</v>
-      </c>
-      <c r="N23" s="11">
-        <v>0</v>
-      </c>
-      <c r="O23" s="11">
-        <v>0</v>
-      </c>
-      <c r="P23" s="11">
-        <v>5.8</v>
-      </c>
-      <c r="Q23" s="11">
-        <v>0</v>
-      </c>
-      <c r="R23" s="11">
-        <v>3.5</v>
-      </c>
-      <c r="S23" s="11">
-        <v>0</v>
-      </c>
-      <c r="T23" s="11">
-        <v>2.4500000000000002</v>
-      </c>
-      <c r="U23" s="11">
-        <v>11.9</v>
-      </c>
       <c r="V23" s="11">
-        <v>3.5</v>
+        <v>0.9</v>
       </c>
       <c r="W23" s="11">
-        <v>0</v>
+        <v>45.699999999999996</v>
       </c>
       <c r="X23" s="11">
-        <v>62.3</v>
+        <v>45.599999999999994</v>
       </c>
       <c r="Y23" s="11">
         <v>0</v>
       </c>
       <c r="Z23" s="11"/>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
         <v>20</v>
       </c>
@@ -2278,77 +2266,77 @@
         <v>35</v>
       </c>
       <c r="C24" s="9">
-        <v>0</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="D24" s="9">
-        <v>0</v>
+        <v>11.9</v>
       </c>
       <c r="E24" s="9">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="F24" s="9">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="G24" s="9">
-        <v>0.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="H24" s="9">
-        <v>4.9000000000000004</v>
+        <v>23.8</v>
       </c>
       <c r="I24" s="9">
-        <v>11.9</v>
+        <v>0</v>
       </c>
       <c r="J24" s="9">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="K24" s="9">
-        <v>0.9</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="L24" s="9">
-        <v>2.4500000000000002</v>
+        <v>0</v>
       </c>
       <c r="M24" s="9">
         <v>0</v>
       </c>
       <c r="N24" s="9">
-        <v>3.5</v>
+        <v>0.9</v>
       </c>
       <c r="O24" s="9">
-        <v>0.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="P24" s="9">
-        <v>5.8</v>
+        <v>11.9</v>
       </c>
       <c r="Q24" s="9">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="R24" s="9">
         <v>0</v>
       </c>
       <c r="S24" s="9">
-        <v>0</v>
+        <v>5.3</v>
       </c>
       <c r="T24" s="9">
-        <v>4.9000000000000004</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="U24" s="9">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="V24" s="9">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="W24" s="9">
-        <v>0.9</v>
+        <v>90.6</v>
       </c>
       <c r="X24" s="9">
-        <v>52.149999999999991</v>
+        <v>90.5</v>
       </c>
       <c r="Y24" s="9">
         <v>0</v>
       </c>
       <c r="Z24" s="9"/>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <v>21</v>
       </c>
@@ -2356,77 +2344,77 @@
         <v>36</v>
       </c>
       <c r="C25" s="11">
-        <v>5.8</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="D25" s="11">
-        <v>4.9000000000000004</v>
+        <v>0</v>
       </c>
       <c r="E25" s="11">
-        <v>12.5</v>
+        <v>3.5</v>
       </c>
       <c r="F25" s="11">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="G25" s="11">
-        <v>0.9</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="H25" s="11">
         <v>0</v>
       </c>
       <c r="I25" s="11">
-        <v>11.9</v>
+        <v>3.5</v>
       </c>
       <c r="J25" s="11">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="K25" s="11">
-        <v>0.9</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="L25" s="11">
-        <v>4.9000000000000004</v>
+        <v>0</v>
       </c>
       <c r="M25" s="11">
-        <v>11.9</v>
+        <v>3.5</v>
       </c>
       <c r="N25" s="11">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="O25" s="11">
-        <v>0.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="P25" s="11">
-        <v>5.8</v>
+        <v>23.8</v>
       </c>
       <c r="Q25" s="11">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="R25" s="11">
-        <v>3.5</v>
+        <v>0.9</v>
       </c>
       <c r="S25" s="11">
-        <v>0.9</v>
+        <v>5.3</v>
       </c>
       <c r="T25" s="11">
-        <v>4.9000000000000004</v>
+        <v>18.399999999999999</v>
       </c>
       <c r="U25" s="11">
-        <v>11.9</v>
+        <v>0</v>
       </c>
       <c r="V25" s="11">
-        <v>3.5</v>
+        <v>0.9</v>
       </c>
       <c r="W25" s="11">
-        <v>0</v>
+        <v>77.2</v>
       </c>
       <c r="X25" s="11">
-        <v>90.899999999999991</v>
+        <v>81.2</v>
       </c>
       <c r="Y25" s="11">
         <v>0</v>
       </c>
       <c r="Z25" s="11"/>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26" s="7">
         <v>22</v>
       </c>
@@ -2434,77 +2422,77 @@
         <v>37</v>
       </c>
       <c r="C26" s="9">
-        <v>5.8</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="D26" s="9">
-        <v>4.9000000000000004</v>
+        <v>11.9</v>
       </c>
       <c r="E26" s="9">
-        <v>12.5</v>
+        <v>3.5</v>
       </c>
       <c r="F26" s="9">
-        <v>7.6</v>
+        <v>0.9</v>
       </c>
       <c r="G26" s="9">
-        <v>0.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="H26" s="9">
-        <v>4.9000000000000004</v>
+        <v>0</v>
       </c>
       <c r="I26" s="9">
-        <v>23.8</v>
+        <v>0</v>
       </c>
       <c r="J26" s="9">
         <v>0</v>
       </c>
       <c r="K26" s="9">
-        <v>0.9</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="L26" s="9">
         <v>0</v>
       </c>
       <c r="M26" s="9">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="N26" s="9">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="O26" s="9">
-        <v>0.9</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="P26" s="9">
-        <v>5.8</v>
+        <v>11.9</v>
       </c>
       <c r="Q26" s="9">
         <v>0</v>
       </c>
       <c r="R26" s="9">
-        <v>3.5</v>
+        <v>0.9</v>
       </c>
       <c r="S26" s="9">
-        <v>0.9</v>
+        <v>5.3</v>
       </c>
       <c r="T26" s="9">
-        <v>4.9000000000000004</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="U26" s="9">
-        <v>11.9</v>
+        <v>0</v>
       </c>
       <c r="V26" s="9">
-        <v>3.5</v>
+        <v>0.9</v>
       </c>
       <c r="W26" s="9">
-        <v>0.9</v>
+        <v>62.699999999999996</v>
       </c>
       <c r="X26" s="9">
-        <v>90.4</v>
+        <v>62.6</v>
       </c>
       <c r="Y26" s="9">
         <v>0</v>
       </c>
       <c r="Z26" s="9"/>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
         <v>23</v>
       </c>
@@ -2512,77 +2500,77 @@
         <v>38</v>
       </c>
       <c r="C27" s="11">
-        <v>2.9</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="D27" s="11">
-        <v>2.4500000000000002</v>
+        <v>11.9</v>
       </c>
       <c r="E27" s="11">
-        <v>12.5</v>
+        <v>3.5</v>
       </c>
       <c r="F27" s="11">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="G27" s="11">
-        <v>0</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="H27" s="11">
-        <v>2.4500000000000002</v>
+        <v>0</v>
       </c>
       <c r="I27" s="11">
-        <v>11.9</v>
+        <v>0</v>
       </c>
       <c r="J27" s="11">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="K27" s="11">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="L27" s="11">
-        <v>0</v>
+        <v>12.9</v>
       </c>
       <c r="M27" s="11">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="N27" s="11">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="O27" s="11">
-        <v>0.9</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="P27" s="11">
-        <v>2.9</v>
+        <v>11.9</v>
       </c>
       <c r="Q27" s="11">
-        <v>12.5</v>
+        <v>3.5</v>
       </c>
       <c r="R27" s="11">
-        <v>3.5</v>
+        <v>0.9</v>
       </c>
       <c r="S27" s="11">
-        <v>0.9</v>
+        <v>5.3</v>
       </c>
       <c r="T27" s="11">
-        <v>4.9000000000000004</v>
+        <v>18.399999999999999</v>
       </c>
       <c r="U27" s="11">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="V27" s="11">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="W27" s="11">
-        <v>0</v>
+        <v>88.549999999999983</v>
       </c>
       <c r="X27" s="11">
-        <v>62.35</v>
+        <v>88.449999999999989</v>
       </c>
       <c r="Y27" s="11">
         <v>0</v>
       </c>
       <c r="Z27" s="11"/>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A28" s="7">
         <v>24</v>
       </c>
@@ -2590,77 +2578,77 @@
         <v>39</v>
       </c>
       <c r="C28" s="9">
-        <v>2.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="D28" s="9">
-        <v>2.4500000000000002</v>
+        <v>23.8</v>
       </c>
       <c r="E28" s="9">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="F28" s="9">
+        <v>0.9</v>
+      </c>
+      <c r="G28" s="9">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="H28" s="9">
+        <v>23.8</v>
+      </c>
+      <c r="I28" s="9">
+        <v>3.5</v>
+      </c>
+      <c r="J28" s="9">
+        <v>0.9</v>
+      </c>
+      <c r="K28" s="9">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="L28" s="9">
+        <v>0</v>
+      </c>
+      <c r="M28" s="9">
+        <v>0</v>
+      </c>
+      <c r="N28" s="9">
+        <v>0.9</v>
+      </c>
+      <c r="O28" s="9">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="P28" s="9">
+        <v>11.9</v>
+      </c>
+      <c r="Q28" s="9">
+        <v>0</v>
+      </c>
+      <c r="R28" s="9">
+        <v>0.9</v>
+      </c>
+      <c r="S28" s="9">
+        <v>5.3</v>
+      </c>
+      <c r="T28" s="9">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="U28" s="9">
         <v>7.6</v>
       </c>
-      <c r="G28" s="9">
-        <v>0</v>
-      </c>
-      <c r="H28" s="9">
-        <v>2.4500000000000002</v>
-      </c>
-      <c r="I28" s="9">
-        <v>23.8</v>
-      </c>
-      <c r="J28" s="9">
-        <v>0</v>
-      </c>
-      <c r="K28" s="9">
-        <v>0.9</v>
-      </c>
-      <c r="L28" s="9">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="M28" s="9">
-        <v>11.9</v>
-      </c>
-      <c r="N28" s="9">
-        <v>0</v>
-      </c>
-      <c r="O28" s="9">
-        <v>0</v>
-      </c>
-      <c r="P28" s="9">
-        <v>5.8</v>
-      </c>
-      <c r="Q28" s="9">
-        <v>12.5</v>
-      </c>
-      <c r="R28" s="9">
-        <v>0</v>
-      </c>
-      <c r="S28" s="9">
-        <v>0</v>
-      </c>
-      <c r="T28" s="9">
-        <v>2.4500000000000002</v>
-      </c>
-      <c r="U28" s="9">
-        <v>23.8</v>
-      </c>
       <c r="V28" s="9">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="W28" s="9">
-        <v>0</v>
+        <v>106.90000000000002</v>
       </c>
       <c r="X28" s="9">
-        <v>101.15</v>
+        <v>110.9</v>
       </c>
       <c r="Y28" s="9">
         <v>0</v>
       </c>
       <c r="Z28" s="9"/>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
         <v>25</v>
       </c>
@@ -2668,77 +2656,77 @@
         <v>40</v>
       </c>
       <c r="C29" s="11">
-        <v>5.8</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="D29" s="11">
-        <v>4.9000000000000004</v>
+        <v>11.9</v>
       </c>
       <c r="E29" s="11">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="F29" s="11">
-        <v>7.6</v>
+        <v>0.9</v>
       </c>
       <c r="G29" s="11">
-        <v>0</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="H29" s="11">
-        <v>4.9000000000000004</v>
+        <v>0</v>
       </c>
       <c r="I29" s="11">
-        <v>11.9</v>
+        <v>3.5</v>
       </c>
       <c r="J29" s="11">
-        <v>3.4</v>
+        <v>0</v>
       </c>
       <c r="K29" s="11">
-        <v>0.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="L29" s="11">
-        <v>4.9000000000000004</v>
+        <v>25.8</v>
       </c>
       <c r="M29" s="11">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="N29" s="11">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="O29" s="11">
-        <v>0</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="P29" s="11">
-        <v>5.8</v>
+        <v>0</v>
       </c>
       <c r="Q29" s="11">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="R29" s="11">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="S29" s="11">
-        <v>0</v>
+        <v>2.65</v>
       </c>
       <c r="T29" s="11">
-        <v>0</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="U29" s="11">
         <v>0</v>
       </c>
       <c r="V29" s="11">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="W29" s="11">
-        <v>0</v>
+        <v>75.500000000000014</v>
       </c>
       <c r="X29" s="11">
-        <v>75.399999999999991</v>
+        <v>79.600000000000009</v>
       </c>
       <c r="Y29" s="11">
         <v>0</v>
       </c>
       <c r="Z29" s="11"/>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A30" s="7">
         <v>26</v>
       </c>
@@ -2746,77 +2734,77 @@
         <v>41</v>
       </c>
       <c r="C30" s="9">
-        <v>5.8</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="D30" s="9">
-        <v>4.9000000000000004</v>
+        <v>0</v>
       </c>
       <c r="E30" s="9">
-        <v>12.5</v>
+        <v>3.5</v>
       </c>
       <c r="F30" s="9">
+        <v>0.9</v>
+      </c>
+      <c r="G30" s="9">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="H30" s="9">
+        <v>11.9</v>
+      </c>
+      <c r="I30" s="9">
+        <v>0</v>
+      </c>
+      <c r="J30" s="9">
+        <v>0.9</v>
+      </c>
+      <c r="K30" s="9">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="L30" s="9">
+        <v>0</v>
+      </c>
+      <c r="M30" s="9">
+        <v>3.5</v>
+      </c>
+      <c r="N30" s="9">
+        <v>0</v>
+      </c>
+      <c r="O30" s="9">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="P30" s="9">
+        <v>23.8</v>
+      </c>
+      <c r="Q30" s="9">
+        <v>0</v>
+      </c>
+      <c r="R30" s="9">
+        <v>0.9</v>
+      </c>
+      <c r="S30" s="9">
+        <v>2.65</v>
+      </c>
+      <c r="T30" s="9">
+        <v>0</v>
+      </c>
+      <c r="U30" s="9">
         <v>7.6</v>
       </c>
-      <c r="G30" s="9">
-        <v>0</v>
-      </c>
-      <c r="H30" s="9">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="I30" s="9">
-        <v>11.9</v>
-      </c>
-      <c r="J30" s="9">
-        <v>0</v>
-      </c>
-      <c r="K30" s="9">
-        <v>0.9</v>
-      </c>
-      <c r="L30" s="9">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="M30" s="9">
-        <v>0</v>
-      </c>
-      <c r="N30" s="9">
-        <v>3.5</v>
-      </c>
-      <c r="O30" s="9">
-        <v>0.9</v>
-      </c>
-      <c r="P30" s="9">
-        <v>5.8</v>
-      </c>
-      <c r="Q30" s="9">
-        <v>0</v>
-      </c>
-      <c r="R30" s="9">
-        <v>0</v>
-      </c>
-      <c r="S30" s="9">
-        <v>0.9</v>
-      </c>
-      <c r="T30" s="9">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="U30" s="9">
-        <v>11.9</v>
-      </c>
       <c r="V30" s="9">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="W30" s="9">
-        <v>0.9</v>
+        <v>72.799999999999983</v>
       </c>
       <c r="X30" s="9">
-        <v>79</v>
+        <v>72.7</v>
       </c>
       <c r="Y30" s="9">
         <v>0</v>
       </c>
       <c r="Z30" s="9"/>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
         <v>27</v>
       </c>
@@ -2824,77 +2812,77 @@
         <v>42</v>
       </c>
       <c r="C31" s="11">
-        <v>5.8</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="D31" s="11">
-        <v>4.9000000000000004</v>
+        <v>11.9</v>
       </c>
       <c r="E31" s="11">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="F31" s="11">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="G31" s="11">
-        <v>0.9</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="H31" s="11">
-        <v>4.9000000000000004</v>
+        <v>11.9</v>
       </c>
       <c r="I31" s="11">
-        <v>11.9</v>
+        <v>0</v>
       </c>
       <c r="J31" s="11">
-        <v>3.4</v>
+        <v>0</v>
       </c>
       <c r="K31" s="11">
-        <v>0</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="L31" s="11">
-        <v>4.9000000000000004</v>
+        <v>0</v>
       </c>
       <c r="M31" s="11">
-        <v>11.9</v>
+        <v>3.5</v>
       </c>
       <c r="N31" s="11">
-        <v>3.5</v>
+        <v>0.9</v>
       </c>
       <c r="O31" s="11">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="P31" s="11">
-        <v>5.8</v>
+        <v>11.9</v>
       </c>
       <c r="Q31" s="11">
         <v>0</v>
       </c>
       <c r="R31" s="11">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="S31" s="11">
-        <v>0</v>
+        <v>5.3</v>
       </c>
       <c r="T31" s="11">
-        <v>4.9000000000000004</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="U31" s="11">
-        <v>11.9</v>
+        <v>7.6</v>
       </c>
       <c r="V31" s="11">
-        <v>3.5</v>
+        <v>0.9</v>
       </c>
       <c r="W31" s="11">
-        <v>0</v>
+        <v>77.149999999999991</v>
       </c>
       <c r="X31" s="11">
-        <v>84.9</v>
+        <v>77.149999999999991</v>
       </c>
       <c r="Y31" s="11">
         <v>0</v>
       </c>
       <c r="Z31" s="11"/>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A32" s="7">
         <v>28</v>
       </c>
@@ -2902,77 +2890,77 @@
         <v>43</v>
       </c>
       <c r="C32" s="9">
-        <v>5.8</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="D32" s="9">
-        <v>4.9000000000000004</v>
+        <v>11.9</v>
       </c>
       <c r="E32" s="9">
-        <v>12.5</v>
+        <v>3.5</v>
       </c>
       <c r="F32" s="9">
+        <v>0</v>
+      </c>
+      <c r="G32" s="9">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="H32" s="9">
+        <v>11.9</v>
+      </c>
+      <c r="I32" s="9">
+        <v>0</v>
+      </c>
+      <c r="J32" s="9">
+        <v>0.9</v>
+      </c>
+      <c r="K32" s="9">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="L32" s="9">
+        <v>0</v>
+      </c>
+      <c r="M32" s="9">
+        <v>3.5</v>
+      </c>
+      <c r="N32" s="9">
+        <v>0.9</v>
+      </c>
+      <c r="O32" s="9">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="P32" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="9">
+        <v>3.5</v>
+      </c>
+      <c r="R32" s="9">
+        <v>0.9</v>
+      </c>
+      <c r="S32" s="9">
+        <v>5.3</v>
+      </c>
+      <c r="T32" s="9">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="U32" s="9">
         <v>7.6</v>
       </c>
-      <c r="G32" s="9">
-        <v>0</v>
-      </c>
-      <c r="H32" s="9">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="I32" s="9">
-        <v>23.8</v>
-      </c>
-      <c r="J32" s="9">
-        <v>3.4</v>
-      </c>
-      <c r="K32" s="9">
-        <v>0</v>
-      </c>
-      <c r="L32" s="9">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="M32" s="9">
-        <v>11.9</v>
-      </c>
-      <c r="N32" s="9">
-        <v>3.5</v>
-      </c>
-      <c r="O32" s="9">
-        <v>0.9</v>
-      </c>
-      <c r="P32" s="9">
-        <v>2.9</v>
-      </c>
-      <c r="Q32" s="9">
-        <v>12.5</v>
-      </c>
-      <c r="R32" s="9">
-        <v>0</v>
-      </c>
-      <c r="S32" s="9">
-        <v>0.9</v>
-      </c>
-      <c r="T32" s="9">
-        <v>0</v>
-      </c>
-      <c r="U32" s="9">
-        <v>23.8</v>
-      </c>
       <c r="V32" s="9">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="W32" s="9">
-        <v>0</v>
+        <v>77.149999999999991</v>
       </c>
       <c r="X32" s="9">
-        <v>117.94999999999999</v>
+        <v>77.05</v>
       </c>
       <c r="Y32" s="9">
         <v>0</v>
       </c>
       <c r="Z32" s="9"/>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A33" s="6">
         <v>29</v>
       </c>
@@ -2980,77 +2968,77 @@
         <v>44</v>
       </c>
       <c r="C33" s="11">
-        <v>5.8</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="D33" s="11">
-        <v>4.9000000000000004</v>
+        <v>11.9</v>
       </c>
       <c r="E33" s="11">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="F33" s="11">
+        <v>0</v>
+      </c>
+      <c r="G33" s="11">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="H33" s="11">
+        <v>11.9</v>
+      </c>
+      <c r="I33" s="11">
+        <v>0</v>
+      </c>
+      <c r="J33" s="11">
+        <v>0.9</v>
+      </c>
+      <c r="K33" s="11">
+        <v>0</v>
+      </c>
+      <c r="L33" s="11">
+        <v>12.9</v>
+      </c>
+      <c r="M33" s="11">
+        <v>0</v>
+      </c>
+      <c r="N33" s="11">
+        <v>0.9</v>
+      </c>
+      <c r="O33" s="11">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="P33" s="11">
+        <v>11.9</v>
+      </c>
+      <c r="Q33" s="11">
+        <v>0</v>
+      </c>
+      <c r="R33" s="11">
+        <v>0.9</v>
+      </c>
+      <c r="S33" s="11">
+        <v>2.65</v>
+      </c>
+      <c r="T33" s="11">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="U33" s="11">
         <v>7.6</v>
       </c>
-      <c r="G33" s="11">
-        <v>0</v>
-      </c>
-      <c r="H33" s="11">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="I33" s="11">
-        <v>0</v>
-      </c>
-      <c r="J33" s="11">
-        <v>0</v>
-      </c>
-      <c r="K33" s="11">
-        <v>0.9</v>
-      </c>
-      <c r="L33" s="11">
-        <v>2.4500000000000002</v>
-      </c>
-      <c r="M33" s="11">
-        <v>11.9</v>
-      </c>
-      <c r="N33" s="11">
-        <v>3.5</v>
-      </c>
-      <c r="O33" s="11">
-        <v>0.9</v>
-      </c>
-      <c r="P33" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q33" s="11">
-        <v>12.5</v>
-      </c>
-      <c r="R33" s="11">
-        <v>0</v>
-      </c>
-      <c r="S33" s="11">
-        <v>0.9</v>
-      </c>
-      <c r="T33" s="11">
-        <v>2.4500000000000002</v>
-      </c>
-      <c r="U33" s="11">
-        <v>11.9</v>
-      </c>
       <c r="V33" s="11">
         <v>0</v>
       </c>
       <c r="W33" s="11">
-        <v>0</v>
+        <v>80.549999999999983</v>
       </c>
       <c r="X33" s="11">
-        <v>77.3</v>
+        <v>80.55</v>
       </c>
       <c r="Y33" s="11">
         <v>0</v>
       </c>
       <c r="Z33" s="11"/>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A34" s="7">
         <v>30</v>
       </c>
@@ -3058,77 +3046,77 @@
         <v>45</v>
       </c>
       <c r="C34" s="9">
-        <v>5.8</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="D34" s="9">
-        <v>4.9000000000000004</v>
+        <v>11.9</v>
       </c>
       <c r="E34" s="9">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="F34" s="9">
         <v>0</v>
       </c>
       <c r="G34" s="9">
-        <v>0</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="H34" s="9">
-        <v>4.9000000000000004</v>
+        <v>23.8</v>
       </c>
       <c r="I34" s="9">
-        <v>11.9</v>
+        <v>0</v>
       </c>
       <c r="J34" s="9">
-        <v>3.4</v>
+        <v>0</v>
       </c>
       <c r="K34" s="9">
-        <v>0.9</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="L34" s="9">
-        <v>4.9000000000000004</v>
+        <v>0</v>
       </c>
       <c r="M34" s="9">
         <v>0</v>
       </c>
       <c r="N34" s="9">
-        <v>3.5</v>
+        <v>0.9</v>
       </c>
       <c r="O34" s="9">
-        <v>0.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="P34" s="9">
-        <v>2.9</v>
+        <v>0</v>
       </c>
       <c r="Q34" s="9">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="R34" s="9">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="S34" s="9">
-        <v>0</v>
+        <v>5.3</v>
       </c>
       <c r="T34" s="9">
-        <v>0</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="U34" s="9">
-        <v>11.9</v>
+        <v>0</v>
       </c>
       <c r="V34" s="9">
-        <v>3.5</v>
+        <v>0.9</v>
       </c>
       <c r="W34" s="9">
-        <v>0</v>
+        <v>72.650000000000006</v>
       </c>
       <c r="X34" s="9">
-        <v>69.150000000000006</v>
+        <v>72.650000000000006</v>
       </c>
       <c r="Y34" s="9">
         <v>0</v>
       </c>
       <c r="Z34" s="9"/>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A35" s="6">
         <v>31</v>
       </c>
@@ -3136,46 +3124,46 @@
         <v>46</v>
       </c>
       <c r="C35" s="11">
-        <v>5.8</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="D35" s="11">
-        <v>4.9000000000000004</v>
+        <v>0</v>
       </c>
       <c r="E35" s="11">
-        <v>25</v>
+        <v>3.5</v>
       </c>
       <c r="F35" s="11">
-        <v>7.6</v>
+        <v>0</v>
       </c>
       <c r="G35" s="11">
-        <v>0.9</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="H35" s="11">
-        <v>2.4500000000000002</v>
+        <v>11.9</v>
       </c>
       <c r="I35" s="11">
-        <v>11.9</v>
+        <v>0</v>
       </c>
       <c r="J35" s="11">
-        <v>3.4</v>
+        <v>0</v>
       </c>
       <c r="K35" s="11">
-        <v>0.9</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="L35" s="11">
-        <v>4.9000000000000004</v>
+        <v>12.9</v>
       </c>
       <c r="M35" s="11">
-        <v>11.9</v>
+        <v>3.5</v>
       </c>
       <c r="N35" s="11">
         <v>0</v>
       </c>
       <c r="O35" s="11">
-        <v>0.9</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="P35" s="11">
-        <v>5.8</v>
+        <v>11.9</v>
       </c>
       <c r="Q35" s="11">
         <v>0</v>
@@ -3184,29 +3172,29 @@
         <v>0</v>
       </c>
       <c r="S35" s="11">
-        <v>0.9</v>
+        <v>5.3</v>
       </c>
       <c r="T35" s="11">
-        <v>4.9000000000000004</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="U35" s="11">
         <v>0</v>
       </c>
       <c r="V35" s="11">
-        <v>3.5</v>
+        <v>0.9</v>
       </c>
       <c r="W35" s="11">
-        <v>0.9</v>
+        <v>71.350000000000009</v>
       </c>
       <c r="X35" s="11">
-        <v>89.85</v>
+        <v>71.25</v>
       </c>
       <c r="Y35" s="11">
         <v>0</v>
       </c>
       <c r="Z35" s="11"/>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A36" s="7">
         <v>32</v>
       </c>
@@ -3214,10 +3202,10 @@
         <v>47</v>
       </c>
       <c r="C36" s="9">
-        <v>2.9</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="D36" s="9">
-        <v>2.4500000000000002</v>
+        <v>11.9</v>
       </c>
       <c r="E36" s="9">
         <v>0</v>
@@ -3226,65 +3214,65 @@
         <v>0</v>
       </c>
       <c r="G36" s="9">
-        <v>0.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="H36" s="9">
-        <v>4.9000000000000004</v>
+        <v>11.9</v>
       </c>
       <c r="I36" s="9">
-        <v>23.8</v>
+        <v>0</v>
       </c>
       <c r="J36" s="9">
-        <v>3.4</v>
+        <v>0</v>
       </c>
       <c r="K36" s="9">
-        <v>0.9</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="L36" s="9">
-        <v>4.9000000000000004</v>
+        <v>12.9</v>
       </c>
       <c r="M36" s="9">
-        <v>11.9</v>
+        <v>3.5</v>
       </c>
       <c r="N36" s="9">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="O36" s="9">
-        <v>0.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="P36" s="9">
-        <v>2.9</v>
+        <v>11.9</v>
       </c>
       <c r="Q36" s="9">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="R36" s="9">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="S36" s="9">
-        <v>0.9</v>
+        <v>5.3</v>
       </c>
       <c r="T36" s="9">
-        <v>4.9000000000000004</v>
+        <v>0</v>
       </c>
       <c r="U36" s="9">
-        <v>11.9</v>
+        <v>7.6</v>
       </c>
       <c r="V36" s="9">
         <v>0</v>
       </c>
       <c r="W36" s="9">
-        <v>0</v>
+        <v>81.5</v>
       </c>
       <c r="X36" s="9">
-        <v>99.199999999999989</v>
+        <v>81.5</v>
       </c>
       <c r="Y36" s="9">
         <v>0</v>
       </c>
       <c r="Z36" s="9"/>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A37" s="6">
         <v>33</v>
       </c>
@@ -3292,77 +3280,77 @@
         <v>48</v>
       </c>
       <c r="C37" s="11">
-        <v>0</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="D37" s="11">
-        <v>0</v>
+        <v>11.9</v>
       </c>
       <c r="E37" s="11">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="F37" s="11">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="G37" s="11">
-        <v>0</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="H37" s="11">
-        <v>2.4500000000000002</v>
+        <v>11.9</v>
       </c>
       <c r="I37" s="11">
-        <v>11.9</v>
+        <v>3.5</v>
       </c>
       <c r="J37" s="11">
         <v>0</v>
       </c>
       <c r="K37" s="11">
-        <v>0</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="L37" s="11">
-        <v>4.9000000000000004</v>
+        <v>25.8</v>
       </c>
       <c r="M37" s="11">
-        <v>11.9</v>
+        <v>3.5</v>
       </c>
       <c r="N37" s="11">
-        <v>3.5</v>
+        <v>0.9</v>
       </c>
       <c r="O37" s="11">
-        <v>0.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="P37" s="11">
-        <v>5.8</v>
+        <v>0</v>
       </c>
       <c r="Q37" s="11">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="R37" s="11">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="S37" s="11">
         <v>0</v>
       </c>
       <c r="T37" s="11">
-        <v>4.9000000000000004</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="U37" s="11">
-        <v>11.9</v>
+        <v>0</v>
       </c>
       <c r="V37" s="11">
-        <v>3.5</v>
+        <v>0.9</v>
       </c>
       <c r="W37" s="11">
-        <v>0</v>
+        <v>89.000000000000028</v>
       </c>
       <c r="X37" s="11">
-        <v>98.249999999999986</v>
+        <v>93.09999999999998</v>
       </c>
       <c r="Y37" s="11">
         <v>0</v>
       </c>
       <c r="Z37" s="11"/>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A38" s="7">
         <v>34</v>
       </c>
@@ -3370,77 +3358,77 @@
         <v>49</v>
       </c>
       <c r="C38" s="9">
-        <v>2.9</v>
+        <v>0</v>
       </c>
       <c r="D38" s="9">
-        <v>2.4500000000000002</v>
+        <v>11.9</v>
       </c>
       <c r="E38" s="9">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="F38" s="9">
+        <v>0</v>
+      </c>
+      <c r="G38" s="9">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="H38" s="9">
+        <v>0</v>
+      </c>
+      <c r="I38" s="9">
+        <v>3.5</v>
+      </c>
+      <c r="J38" s="9">
+        <v>0.9</v>
+      </c>
+      <c r="K38" s="9">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="L38" s="9">
+        <v>0</v>
+      </c>
+      <c r="M38" s="9">
+        <v>0</v>
+      </c>
+      <c r="N38" s="9">
+        <v>0.9</v>
+      </c>
+      <c r="O38" s="9">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="P38" s="9">
+        <v>11.9</v>
+      </c>
+      <c r="Q38" s="9">
+        <v>0</v>
+      </c>
+      <c r="R38" s="9">
+        <v>0.9</v>
+      </c>
+      <c r="S38" s="9">
+        <v>5.3</v>
+      </c>
+      <c r="T38" s="9">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="U38" s="9">
         <v>7.6</v>
       </c>
-      <c r="G38" s="9">
-        <v>0</v>
-      </c>
-      <c r="H38" s="9">
-        <v>2.4500000000000002</v>
-      </c>
-      <c r="I38" s="9">
-        <v>0</v>
-      </c>
-      <c r="J38" s="9">
-        <v>3.4</v>
-      </c>
-      <c r="K38" s="9">
-        <v>0</v>
-      </c>
-      <c r="L38" s="9">
-        <v>2.4500000000000002</v>
-      </c>
-      <c r="M38" s="9">
-        <v>0</v>
-      </c>
-      <c r="N38" s="9">
-        <v>3.5</v>
-      </c>
-      <c r="O38" s="9">
-        <v>0</v>
-      </c>
-      <c r="P38" s="9">
-        <v>2.9</v>
-      </c>
-      <c r="Q38" s="9">
-        <v>25</v>
-      </c>
-      <c r="R38" s="9">
-        <v>3.5</v>
-      </c>
-      <c r="S38" s="9">
-        <v>0</v>
-      </c>
-      <c r="T38" s="9">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="U38" s="9">
-        <v>11.9</v>
-      </c>
       <c r="V38" s="9">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="W38" s="9">
-        <v>0</v>
+        <v>71.099999999999994</v>
       </c>
       <c r="X38" s="9">
-        <v>85.6</v>
+        <v>75.2</v>
       </c>
       <c r="Y38" s="9">
         <v>0</v>
       </c>
       <c r="Z38" s="9"/>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A39" s="6">
         <v>35</v>
       </c>
@@ -3448,149 +3436,149 @@
         <v>50</v>
       </c>
       <c r="C39" s="11">
-        <v>5.8</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="D39" s="11">
-        <v>4.9000000000000004</v>
+        <v>0</v>
       </c>
       <c r="E39" s="11">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="F39" s="11">
+        <v>0</v>
+      </c>
+      <c r="G39" s="11">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="H39" s="11">
+        <v>11.9</v>
+      </c>
+      <c r="I39" s="11">
+        <v>0</v>
+      </c>
+      <c r="J39" s="11">
+        <v>0.9</v>
+      </c>
+      <c r="K39" s="11">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="L39" s="11">
+        <v>12.9</v>
+      </c>
+      <c r="M39" s="11">
+        <v>0</v>
+      </c>
+      <c r="N39" s="11">
+        <v>0.9</v>
+      </c>
+      <c r="O39" s="11">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="P39" s="11">
+        <v>11.9</v>
+      </c>
+      <c r="Q39" s="11">
+        <v>3.5</v>
+      </c>
+      <c r="R39" s="11">
+        <v>0.9</v>
+      </c>
+      <c r="S39" s="11">
+        <v>0</v>
+      </c>
+      <c r="T39" s="11">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="U39" s="11">
         <v>7.6</v>
       </c>
-      <c r="G39" s="11">
-        <v>0.9</v>
-      </c>
-      <c r="H39" s="11">
-        <v>2.4500000000000002</v>
-      </c>
-      <c r="I39" s="11">
-        <v>11.9</v>
-      </c>
-      <c r="J39" s="11">
-        <v>0</v>
-      </c>
-      <c r="K39" s="11">
-        <v>0</v>
-      </c>
-      <c r="L39" s="11">
-        <v>0</v>
-      </c>
-      <c r="M39" s="11">
-        <v>11.9</v>
-      </c>
-      <c r="N39" s="11">
-        <v>0</v>
-      </c>
-      <c r="O39" s="11">
-        <v>0</v>
-      </c>
-      <c r="P39" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q39" s="11">
-        <v>12.5</v>
-      </c>
-      <c r="R39" s="11">
-        <v>0</v>
-      </c>
-      <c r="S39" s="11">
-        <v>0.9</v>
-      </c>
-      <c r="T39" s="11">
-        <v>0</v>
-      </c>
-      <c r="U39" s="11">
-        <v>11.9</v>
-      </c>
       <c r="V39" s="11">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="W39" s="11">
-        <v>0</v>
+        <v>79.299999999999983</v>
       </c>
       <c r="X39" s="11">
-        <v>93.450000000000017</v>
+        <v>79.3</v>
       </c>
       <c r="Y39" s="11">
         <v>0</v>
       </c>
       <c r="Z39" s="11"/>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A40" s="8" t="s">
         <v>51</v>
       </c>
       <c r="B40" s="8"/>
       <c r="C40" s="9">
-        <v>278.19999999999993</v>
+        <v>122.50000000000007</v>
       </c>
       <c r="D40" s="9">
-        <v>350</v>
+        <v>297.5</v>
       </c>
       <c r="E40" s="9">
-        <v>159.59999999999994</v>
+        <v>70</v>
       </c>
       <c r="F40" s="9">
+        <v>19.799999999999997</v>
+      </c>
+      <c r="G40" s="9">
+        <v>132.30000000000004</v>
+      </c>
+      <c r="H40" s="9">
+        <v>333.2</v>
+      </c>
+      <c r="I40" s="9">
+        <v>56</v>
+      </c>
+      <c r="J40" s="9">
+        <v>19.799999999999997</v>
+      </c>
+      <c r="K40" s="9">
+        <v>122.50000000000007</v>
+      </c>
+      <c r="L40" s="9">
+        <v>309.59999999999997</v>
+      </c>
+      <c r="M40" s="9">
+        <v>63</v>
+      </c>
+      <c r="N40" s="9">
+        <v>23.399999999999991</v>
+      </c>
+      <c r="O40" s="9">
+        <v>132.30000000000007</v>
+      </c>
+      <c r="P40" s="9">
+        <v>345.09999999999997</v>
+      </c>
+      <c r="Q40" s="9">
+        <v>56</v>
+      </c>
+      <c r="R40" s="9">
+        <v>19.799999999999997</v>
+      </c>
+      <c r="S40" s="9">
+        <v>135.14999999999998</v>
+      </c>
+      <c r="T40" s="9">
+        <v>275.99999999999989</v>
+      </c>
+      <c r="U40" s="9">
+        <v>144.39999999999995</v>
+      </c>
+      <c r="V40" s="9">
         <v>15.300000000000004</v>
       </c>
-      <c r="G40" s="9">
-        <v>122.50000000000007</v>
-      </c>
-      <c r="H40" s="9">
-        <v>416.49999999999983</v>
-      </c>
-      <c r="I40" s="9">
-        <v>50.999999999999986</v>
-      </c>
-      <c r="J40" s="9">
-        <v>16.200000000000003</v>
-      </c>
-      <c r="K40" s="9">
-        <v>117.60000000000005</v>
-      </c>
-      <c r="L40" s="9">
-        <v>285.60000000000002</v>
-      </c>
-      <c r="M40" s="9">
-        <v>73.5</v>
-      </c>
-      <c r="N40" s="9">
-        <v>16.200000000000003</v>
-      </c>
-      <c r="O40" s="9">
-        <v>118.89999999999999</v>
-      </c>
-      <c r="P40" s="9">
-        <v>325</v>
-      </c>
-      <c r="Q40" s="9">
-        <v>70</v>
-      </c>
-      <c r="R40" s="9">
-        <v>14.400000000000004</v>
-      </c>
-      <c r="S40" s="9">
-        <v>115.15000000000005</v>
-      </c>
-      <c r="T40" s="9">
-        <v>380.7999999999999</v>
-      </c>
-      <c r="U40" s="9">
-        <v>94.5</v>
-      </c>
-      <c r="V40" s="9">
-        <v>10.800000000000002</v>
-      </c>
       <c r="W40" s="9">
-        <v>3031.7500000000005</v>
+        <v>2693.6500000000005</v>
       </c>
       <c r="X40" s="9">
-        <v>2862.4999999999995</v>
+        <v>2667.2500000000005</v>
       </c>
       <c r="Y40" s="9">
-        <v>0</v>
+        <v>-86</v>
       </c>
       <c r="Z40" s="9"/>
     </row>
@@ -3612,28 +3600,4 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/ACSDining.Web/ExcelFiles/Paiments.xlsx
+++ b/ACSDining.Web/ExcelFiles/Paiments.xlsx
@@ -6,7 +6,7 @@
     <workbookView autoFilterDateGrouping="0" xWindow="0" yWindow="0" windowWidth="9660" windowHeight="5490" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Заявки фактические" sheetId="1" r:id="rId1"/>
+    <sheet name="Оплаты" sheetId="1" r:id="rId1"/>
     <sheet name="Bytescout Spreadsheet SDK" sheetId="2" r:id="rId2"/>
   </sheets>
 </workbook>
@@ -57,7 +57,7 @@
     <t>Цена за одну порцию, грн</t>
   </si>
   <si>
-    <t>employee</t>
+    <t>User Employee</t>
   </si>
   <si>
     <t>Алиниченко А.</t>
@@ -395,10 +395,10 @@
         <v>4.9</v>
       </c>
       <c r="E5" s="5">
-        <v>11.9</v>
+        <v>9.8</v>
       </c>
       <c r="F5" s="5">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="G5" s="5">
         <v>0.9</v>
@@ -407,10 +407,10 @@
         <v>4.9</v>
       </c>
       <c r="I5" s="5">
-        <v>9.2</v>
+        <v>11.9</v>
       </c>
       <c r="J5" s="5">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K5" s="5">
         <v>0.9</v>
@@ -419,19 +419,19 @@
         <v>4.9</v>
       </c>
       <c r="M5" s="5">
-        <v>9.2</v>
+        <v>11.9</v>
       </c>
       <c r="N5" s="5">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="O5" s="5">
         <v>0.9</v>
       </c>
       <c r="P5" s="5">
-        <v>4.9</v>
+        <v>5.3</v>
       </c>
       <c r="Q5" s="5">
-        <v>11.9</v>
+        <v>9.8</v>
       </c>
       <c r="R5" s="5">
         <v>3.5</v>
@@ -443,7 +443,7 @@
         <v>4.9</v>
       </c>
       <c r="U5" s="5">
-        <v>11.5</v>
+        <v>11.9</v>
       </c>
       <c r="V5" s="5">
         <v>3.5</v>
@@ -467,43 +467,43 @@
         <v>4.9</v>
       </c>
       <c r="E6" s="2">
-        <v>11.9</v>
+        <v>0</v>
       </c>
       <c r="F6" s="2">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="G6" s="2">
         <v>0</v>
       </c>
       <c r="H6" s="2">
-        <v>4.9</v>
+        <v>2.45</v>
       </c>
       <c r="I6" s="2">
-        <v>0</v>
+        <v>11.9</v>
       </c>
       <c r="J6" s="2">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="K6" s="2">
         <v>0</v>
       </c>
       <c r="L6" s="2">
-        <v>4.9</v>
+        <v>0</v>
       </c>
       <c r="M6" s="2">
-        <v>9.2</v>
+        <v>0</v>
       </c>
       <c r="N6" s="2">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="O6" s="2">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="P6" s="2">
-        <v>2.45</v>
+        <v>5.3</v>
       </c>
       <c r="Q6" s="2">
-        <v>23.8</v>
+        <v>0</v>
       </c>
       <c r="R6" s="2">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>4.9</v>
       </c>
       <c r="U6" s="2">
-        <v>0</v>
+        <v>11.9</v>
       </c>
       <c r="V6" s="2">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="W6" s="2">
         <v>0</v>
       </c>
       <c r="X6" s="2">
-        <v>70.45</v>
+        <v>52.65</v>
       </c>
       <c r="Y6" s="2">
-        <v>70.45</v>
+        <v>52.65</v>
       </c>
       <c r="Z6" s="2">
-        <v>0</v>
+        <v>16.8</v>
       </c>
     </row>
     <row r="7">
@@ -548,16 +548,16 @@
         <v>0</v>
       </c>
       <c r="F7" s="5">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="G7" s="5">
         <v>0</v>
       </c>
       <c r="H7" s="5">
-        <v>4.9</v>
+        <v>2.45</v>
       </c>
       <c r="I7" s="5">
-        <v>18.4</v>
+        <v>11.9</v>
       </c>
       <c r="J7" s="5">
         <v>0</v>
@@ -569,43 +569,43 @@
         <v>4.9</v>
       </c>
       <c r="M7" s="5">
-        <v>9.2</v>
+        <v>11.9</v>
       </c>
       <c r="N7" s="5">
         <v>0</v>
       </c>
       <c r="O7" s="5">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="P7" s="5">
-        <v>4.9</v>
+        <v>5.3</v>
       </c>
       <c r="Q7" s="5">
-        <v>11.9</v>
+        <v>9.8</v>
       </c>
       <c r="R7" s="5">
         <v>0</v>
       </c>
       <c r="S7" s="5">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="T7" s="5">
         <v>4.9</v>
       </c>
       <c r="U7" s="5">
-        <v>0</v>
+        <v>23.8</v>
       </c>
       <c r="V7" s="5">
         <v>3.5</v>
       </c>
       <c r="W7" s="5">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="X7" s="5">
-        <v>66.85</v>
+        <v>87</v>
       </c>
       <c r="Y7" s="5">
-        <v>66.85</v>
+        <v>87</v>
       </c>
       <c r="Z7" s="5">
         <v>0</v>
@@ -623,22 +623,22 @@
         <v>0</v>
       </c>
       <c r="E8" s="2">
-        <v>11.9</v>
+        <v>9.8</v>
       </c>
       <c r="F8" s="2">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="G8" s="2">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="H8" s="2">
-        <v>0</v>
+        <v>2.45</v>
       </c>
       <c r="I8" s="2">
-        <v>0</v>
+        <v>11.9</v>
       </c>
       <c r="J8" s="2">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="K8" s="2">
         <v>0.9</v>
@@ -647,43 +647,43 @@
         <v>4.9</v>
       </c>
       <c r="M8" s="2">
-        <v>0</v>
+        <v>11.9</v>
       </c>
       <c r="N8" s="2">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="O8" s="2">
         <v>0</v>
       </c>
       <c r="P8" s="2">
-        <v>0</v>
+        <v>2.65</v>
       </c>
       <c r="Q8" s="2">
-        <v>0</v>
+        <v>9.8</v>
       </c>
       <c r="R8" s="2">
         <v>0</v>
       </c>
       <c r="S8" s="2">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="T8" s="2">
-        <v>4.9</v>
+        <v>2.45</v>
       </c>
       <c r="U8" s="2">
-        <v>11.5</v>
+        <v>0</v>
       </c>
       <c r="V8" s="2">
         <v>3.5</v>
       </c>
       <c r="W8" s="2">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="X8" s="2">
-        <v>42.9</v>
+        <v>71.45</v>
       </c>
       <c r="Y8" s="2">
-        <v>42.9</v>
+        <v>71.45</v>
       </c>
       <c r="Z8" s="2">
         <v>0</v>
@@ -701,67 +701,67 @@
         <v>4.9</v>
       </c>
       <c r="E9" s="5">
-        <v>11.9</v>
+        <v>9.8</v>
       </c>
       <c r="F9" s="5">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="G9" s="5">
         <v>0.9</v>
       </c>
       <c r="H9" s="5">
-        <v>2.45</v>
+        <v>0</v>
       </c>
       <c r="I9" s="5">
-        <v>9.2</v>
+        <v>11.9</v>
       </c>
       <c r="J9" s="5">
-        <v>3.4</v>
+        <v>0</v>
       </c>
       <c r="K9" s="5">
         <v>0</v>
       </c>
       <c r="L9" s="5">
-        <v>2.45</v>
+        <v>4.9</v>
       </c>
       <c r="M9" s="5">
-        <v>9.2</v>
+        <v>11.9</v>
       </c>
       <c r="N9" s="5">
         <v>0</v>
       </c>
       <c r="O9" s="5">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="P9" s="5">
-        <v>4.9</v>
+        <v>5.3</v>
       </c>
       <c r="Q9" s="5">
-        <v>11.9</v>
+        <v>9.8</v>
       </c>
       <c r="R9" s="5">
         <v>3.5</v>
       </c>
       <c r="S9" s="5">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="T9" s="5">
         <v>4.9</v>
       </c>
       <c r="U9" s="5">
-        <v>11.5</v>
+        <v>11.9</v>
       </c>
       <c r="V9" s="5">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="W9" s="5">
         <v>0</v>
       </c>
       <c r="X9" s="5">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="Y9" s="5">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="Z9" s="5">
         <v>0</v>
@@ -782,64 +782,64 @@
         <v>0</v>
       </c>
       <c r="F10" s="2">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="G10" s="2">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="H10" s="2">
         <v>4.9</v>
       </c>
       <c r="I10" s="2">
-        <v>0</v>
+        <v>11.9</v>
       </c>
       <c r="J10" s="2">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="K10" s="2">
         <v>0</v>
       </c>
       <c r="L10" s="2">
-        <v>2.45</v>
+        <v>0</v>
       </c>
       <c r="M10" s="2">
-        <v>9.2</v>
+        <v>11.9</v>
       </c>
       <c r="N10" s="2">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="O10" s="2">
         <v>0.9</v>
       </c>
       <c r="P10" s="2">
-        <v>2.45</v>
+        <v>5.3</v>
       </c>
       <c r="Q10" s="2">
-        <v>11.9</v>
+        <v>19.6</v>
       </c>
       <c r="R10" s="2">
         <v>0</v>
       </c>
       <c r="S10" s="2">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="T10" s="2">
-        <v>0</v>
+        <v>4.9</v>
       </c>
       <c r="U10" s="2">
-        <v>11.5</v>
+        <v>0</v>
       </c>
       <c r="V10" s="2">
         <v>0</v>
       </c>
       <c r="W10" s="2">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="X10" s="2">
-        <v>56.1</v>
+        <v>73</v>
       </c>
       <c r="Y10" s="2">
-        <v>56.1</v>
+        <v>73</v>
       </c>
       <c r="Z10" s="2">
         <v>0</v>
@@ -857,10 +857,10 @@
         <v>2.45</v>
       </c>
       <c r="E11" s="5">
-        <v>23.8</v>
+        <v>9.8</v>
       </c>
       <c r="F11" s="5">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="G11" s="5">
         <v>0</v>
@@ -869,10 +869,10 @@
         <v>2.45</v>
       </c>
       <c r="I11" s="5">
-        <v>9.2</v>
+        <v>0</v>
       </c>
       <c r="J11" s="5">
-        <v>3.4</v>
+        <v>0</v>
       </c>
       <c r="K11" s="5">
         <v>0.9</v>
@@ -881,31 +881,31 @@
         <v>4.9</v>
       </c>
       <c r="M11" s="5">
-        <v>0</v>
+        <v>11.9</v>
       </c>
       <c r="N11" s="5">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="O11" s="5">
         <v>0</v>
       </c>
       <c r="P11" s="5">
-        <v>2.45</v>
+        <v>2.65</v>
       </c>
       <c r="Q11" s="5">
-        <v>11.9</v>
+        <v>9.8</v>
       </c>
       <c r="R11" s="5">
         <v>3.5</v>
       </c>
       <c r="S11" s="5">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="T11" s="5">
-        <v>2.45</v>
+        <v>4.9</v>
       </c>
       <c r="U11" s="5">
-        <v>11.5</v>
+        <v>11.9</v>
       </c>
       <c r="V11" s="5">
         <v>0</v>
@@ -914,10 +914,10 @@
         <v>0.9</v>
       </c>
       <c r="X11" s="5">
-        <v>84.2</v>
+        <v>69.45</v>
       </c>
       <c r="Y11" s="5">
-        <v>84.2</v>
+        <v>69.45</v>
       </c>
       <c r="Z11" s="5">
         <v>0</v>
@@ -935,13 +935,13 @@
         <v>4.9</v>
       </c>
       <c r="E12" s="2">
-        <v>11.9</v>
+        <v>9.8</v>
       </c>
       <c r="F12" s="2">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="G12" s="2">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="H12" s="2">
         <v>2.45</v>
@@ -959,43 +959,43 @@
         <v>2.45</v>
       </c>
       <c r="M12" s="2">
-        <v>0</v>
+        <v>11.9</v>
       </c>
       <c r="N12" s="2">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="O12" s="2">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="P12" s="2">
-        <v>4.9</v>
+        <v>5.3</v>
       </c>
       <c r="Q12" s="2">
         <v>0</v>
       </c>
       <c r="R12" s="2">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="S12" s="2">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="T12" s="2">
-        <v>2.45</v>
+        <v>4.9</v>
       </c>
       <c r="U12" s="2">
-        <v>11.5</v>
+        <v>0</v>
       </c>
       <c r="V12" s="2">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="W12" s="2">
         <v>0</v>
       </c>
       <c r="X12" s="2">
-        <v>49.35</v>
+        <v>49.5</v>
       </c>
       <c r="Y12" s="2">
-        <v>49.35</v>
+        <v>49.5</v>
       </c>
       <c r="Z12" s="2">
         <v>0</v>
@@ -1010,70 +1010,70 @@
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="5">
-        <v>2.45</v>
+        <v>4.9</v>
       </c>
       <c r="E13" s="5">
         <v>0</v>
       </c>
       <c r="F13" s="5">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="G13" s="5">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="H13" s="5">
-        <v>4.9</v>
+        <v>0</v>
       </c>
       <c r="I13" s="5">
-        <v>9.2</v>
+        <v>23.8</v>
       </c>
       <c r="J13" s="5">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="K13" s="5">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="L13" s="5">
         <v>4.9</v>
       </c>
       <c r="M13" s="5">
-        <v>18.4</v>
+        <v>0</v>
       </c>
       <c r="N13" s="5">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="O13" s="5">
         <v>0.9</v>
       </c>
       <c r="P13" s="5">
-        <v>4.9</v>
+        <v>2.65</v>
       </c>
       <c r="Q13" s="5">
-        <v>11.9</v>
+        <v>9.8</v>
       </c>
       <c r="R13" s="5">
         <v>3.5</v>
       </c>
       <c r="S13" s="5">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="T13" s="5">
-        <v>4.9</v>
+        <v>0</v>
       </c>
       <c r="U13" s="5">
-        <v>11.5</v>
+        <v>11.9</v>
       </c>
       <c r="V13" s="5">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="W13" s="5">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="X13" s="5">
-        <v>80.95</v>
+        <v>79.75</v>
       </c>
       <c r="Y13" s="5">
-        <v>80.95</v>
+        <v>79.75</v>
       </c>
       <c r="Z13" s="5">
         <v>0</v>
@@ -1091,67 +1091,67 @@
         <v>4.9</v>
       </c>
       <c r="E14" s="2">
+        <v>0</v>
+      </c>
+      <c r="F14" s="2">
+        <v>3.4</v>
+      </c>
+      <c r="G14" s="2">
+        <v>0</v>
+      </c>
+      <c r="H14" s="2">
+        <v>2.45</v>
+      </c>
+      <c r="I14" s="2">
         <v>23.8</v>
       </c>
-      <c r="F14" s="2">
-        <v>3.5</v>
-      </c>
-      <c r="G14" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="H14" s="2">
-        <v>4.9</v>
-      </c>
-      <c r="I14" s="2">
-        <v>18.4</v>
-      </c>
       <c r="J14" s="2">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K14" s="2">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="L14" s="2">
         <v>4.9</v>
       </c>
       <c r="M14" s="2">
-        <v>9.2</v>
+        <v>23.8</v>
       </c>
       <c r="N14" s="2">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="O14" s="2">
         <v>0.9</v>
       </c>
       <c r="P14" s="2">
-        <v>0</v>
+        <v>2.65</v>
       </c>
       <c r="Q14" s="2">
-        <v>0</v>
+        <v>9.8</v>
       </c>
       <c r="R14" s="2">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="S14" s="2">
         <v>0</v>
       </c>
       <c r="T14" s="2">
-        <v>0</v>
+        <v>4.9</v>
       </c>
       <c r="U14" s="2">
-        <v>11.5</v>
+        <v>11.9</v>
       </c>
       <c r="V14" s="2">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="W14" s="2">
         <v>0</v>
       </c>
       <c r="X14" s="2">
-        <v>94.2</v>
+        <v>100.3</v>
       </c>
       <c r="Y14" s="2">
-        <v>94.2</v>
+        <v>100.3</v>
       </c>
       <c r="Z14" s="2">
         <v>0</v>
@@ -1169,22 +1169,22 @@
         <v>2.45</v>
       </c>
       <c r="E15" s="5">
-        <v>0</v>
+        <v>19.6</v>
       </c>
       <c r="F15" s="5">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="G15" s="5">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="H15" s="5">
-        <v>2.45</v>
+        <v>0</v>
       </c>
       <c r="I15" s="5">
-        <v>18.4</v>
+        <v>0</v>
       </c>
       <c r="J15" s="5">
-        <v>3.4</v>
+        <v>0</v>
       </c>
       <c r="K15" s="5">
         <v>0</v>
@@ -1193,43 +1193,43 @@
         <v>4.9</v>
       </c>
       <c r="M15" s="5">
-        <v>9.2</v>
+        <v>0</v>
       </c>
       <c r="N15" s="5">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="O15" s="5">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="P15" s="5">
-        <v>4.9</v>
+        <v>5.3</v>
       </c>
       <c r="Q15" s="5">
-        <v>11.9</v>
+        <v>9.8</v>
       </c>
       <c r="R15" s="5">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="S15" s="5">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="T15" s="5">
-        <v>2.45</v>
+        <v>4.9</v>
       </c>
       <c r="U15" s="5">
-        <v>11.5</v>
+        <v>0</v>
       </c>
       <c r="V15" s="5">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="W15" s="5">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="X15" s="5">
-        <v>75.95</v>
+        <v>59.95</v>
       </c>
       <c r="Y15" s="5">
-        <v>75.95</v>
+        <v>59.95</v>
       </c>
       <c r="Z15" s="5">
         <v>0</v>
@@ -1247,25 +1247,25 @@
         <v>2.45</v>
       </c>
       <c r="E16" s="2">
-        <v>11.9</v>
+        <v>9.8</v>
       </c>
       <c r="F16" s="2">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="G16" s="2">
         <v>0.9</v>
       </c>
       <c r="H16" s="2">
-        <v>4.9</v>
+        <v>0</v>
       </c>
       <c r="I16" s="2">
-        <v>18.4</v>
+        <v>11.9</v>
       </c>
       <c r="J16" s="2">
-        <v>3.4</v>
+        <v>0</v>
       </c>
       <c r="K16" s="2">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="L16" s="2">
         <v>4.9</v>
@@ -1274,19 +1274,19 @@
         <v>0</v>
       </c>
       <c r="N16" s="2">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="O16" s="2">
         <v>0</v>
       </c>
       <c r="P16" s="2">
-        <v>2.45</v>
+        <v>0</v>
       </c>
       <c r="Q16" s="2">
-        <v>0</v>
+        <v>9.8</v>
       </c>
       <c r="R16" s="2">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="S16" s="2">
         <v>0</v>
@@ -1295,19 +1295,19 @@
         <v>4.9</v>
       </c>
       <c r="U16" s="2">
-        <v>0</v>
+        <v>23.8</v>
       </c>
       <c r="V16" s="2">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="W16" s="2">
         <v>0</v>
       </c>
       <c r="X16" s="2">
-        <v>62.1</v>
+        <v>78.75</v>
       </c>
       <c r="Y16" s="2">
-        <v>62.1</v>
+        <v>78.75</v>
       </c>
       <c r="Z16" s="2">
         <v>0</v>
@@ -1322,46 +1322,46 @@
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="5">
-        <v>4.9</v>
+        <v>0</v>
       </c>
       <c r="E17" s="5">
-        <v>23.8</v>
+        <v>9.8</v>
       </c>
       <c r="F17" s="5">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="G17" s="5">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="H17" s="5">
         <v>2.45</v>
       </c>
       <c r="I17" s="5">
-        <v>9.2</v>
+        <v>0</v>
       </c>
       <c r="J17" s="5">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K17" s="5">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="L17" s="5">
-        <v>2.45</v>
+        <v>4.9</v>
       </c>
       <c r="M17" s="5">
         <v>0</v>
       </c>
       <c r="N17" s="5">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="O17" s="5">
         <v>0</v>
       </c>
       <c r="P17" s="5">
-        <v>0</v>
+        <v>5.3</v>
       </c>
       <c r="Q17" s="5">
-        <v>11.9</v>
+        <v>0</v>
       </c>
       <c r="R17" s="5">
         <v>3.5</v>
@@ -1370,22 +1370,22 @@
         <v>0</v>
       </c>
       <c r="T17" s="5">
-        <v>0</v>
+        <v>4.9</v>
       </c>
       <c r="U17" s="5">
-        <v>11.5</v>
+        <v>11.9</v>
       </c>
       <c r="V17" s="5">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="W17" s="5">
         <v>0.9</v>
       </c>
       <c r="X17" s="5">
-        <v>74.9</v>
+        <v>58.35</v>
       </c>
       <c r="Y17" s="5">
-        <v>74.9</v>
+        <v>58.35</v>
       </c>
       <c r="Z17" s="5">
         <v>0</v>
@@ -1403,19 +1403,19 @@
         <v>4.9</v>
       </c>
       <c r="E18" s="2">
-        <v>11.9</v>
+        <v>0</v>
       </c>
       <c r="F18" s="2">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="G18" s="2">
         <v>0.9</v>
       </c>
       <c r="H18" s="2">
-        <v>0</v>
+        <v>4.9</v>
       </c>
       <c r="I18" s="2">
-        <v>9.2</v>
+        <v>11.9</v>
       </c>
       <c r="J18" s="2">
         <v>0</v>
@@ -1424,46 +1424,46 @@
         <v>0.9</v>
       </c>
       <c r="L18" s="2">
-        <v>2.45</v>
+        <v>4.9</v>
       </c>
       <c r="M18" s="2">
-        <v>9.2</v>
+        <v>23.8</v>
       </c>
       <c r="N18" s="2">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="O18" s="2">
         <v>0</v>
       </c>
       <c r="P18" s="2">
-        <v>4.9</v>
+        <v>2.65</v>
       </c>
       <c r="Q18" s="2">
+        <v>9.8</v>
+      </c>
+      <c r="R18" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="S18" s="2">
+        <v>0</v>
+      </c>
+      <c r="T18" s="2">
+        <v>2.45</v>
+      </c>
+      <c r="U18" s="2">
         <v>23.8</v>
       </c>
-      <c r="R18" s="2">
-        <v>0</v>
-      </c>
-      <c r="S18" s="2">
-        <v>0</v>
-      </c>
-      <c r="T18" s="2">
-        <v>2.45</v>
-      </c>
-      <c r="U18" s="2">
-        <v>11.5</v>
-      </c>
       <c r="V18" s="2">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="W18" s="2">
         <v>0.9</v>
       </c>
       <c r="X18" s="2">
-        <v>90</v>
+        <v>98.8</v>
       </c>
       <c r="Y18" s="2">
-        <v>90</v>
+        <v>98.8</v>
       </c>
       <c r="Z18" s="2">
         <v>0</v>
@@ -1478,25 +1478,25 @@
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="5">
-        <v>2.45</v>
+        <v>4.9</v>
       </c>
       <c r="E19" s="5">
-        <v>0</v>
+        <v>9.8</v>
       </c>
       <c r="F19" s="5">
         <v>0</v>
       </c>
       <c r="G19" s="5">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="H19" s="5">
-        <v>2.45</v>
+        <v>4.9</v>
       </c>
       <c r="I19" s="5">
-        <v>9.2</v>
+        <v>11.9</v>
       </c>
       <c r="J19" s="5">
-        <v>3.4</v>
+        <v>0</v>
       </c>
       <c r="K19" s="5">
         <v>0.9</v>
@@ -1505,19 +1505,19 @@
         <v>2.45</v>
       </c>
       <c r="M19" s="5">
-        <v>0</v>
+        <v>11.9</v>
       </c>
       <c r="N19" s="5">
         <v>0</v>
       </c>
       <c r="O19" s="5">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="P19" s="5">
-        <v>4.9</v>
+        <v>2.65</v>
       </c>
       <c r="Q19" s="5">
-        <v>11.9</v>
+        <v>9.8</v>
       </c>
       <c r="R19" s="5">
         <v>3.5</v>
@@ -1526,7 +1526,7 @@
         <v>0.9</v>
       </c>
       <c r="T19" s="5">
-        <v>2.45</v>
+        <v>4.9</v>
       </c>
       <c r="U19" s="5">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="W19" s="5">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="X19" s="5">
-        <v>45.4</v>
+        <v>70.3</v>
       </c>
       <c r="Y19" s="5">
-        <v>45.4</v>
+        <v>70.3</v>
       </c>
       <c r="Z19" s="5">
         <v>0</v>
@@ -1559,10 +1559,10 @@
         <v>4.9</v>
       </c>
       <c r="E20" s="2">
-        <v>23.8</v>
+        <v>0</v>
       </c>
       <c r="F20" s="2">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="G20" s="2">
         <v>0.9</v>
@@ -1571,19 +1571,19 @@
         <v>4.9</v>
       </c>
       <c r="I20" s="2">
-        <v>9.2</v>
+        <v>11.9</v>
       </c>
       <c r="J20" s="2">
         <v>0</v>
       </c>
       <c r="K20" s="2">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="L20" s="2">
-        <v>2.45</v>
+        <v>4.9</v>
       </c>
       <c r="M20" s="2">
-        <v>9.2</v>
+        <v>11.9</v>
       </c>
       <c r="N20" s="2">
         <v>0</v>
@@ -1592,34 +1592,34 @@
         <v>0.9</v>
       </c>
       <c r="P20" s="2">
-        <v>4.9</v>
+        <v>5.3</v>
       </c>
       <c r="Q20" s="2">
-        <v>11.9</v>
+        <v>19.6</v>
       </c>
       <c r="R20" s="2">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="S20" s="2">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="T20" s="2">
-        <v>2.45</v>
+        <v>4.9</v>
       </c>
       <c r="U20" s="2">
-        <v>11.5</v>
+        <v>11.9</v>
       </c>
       <c r="V20" s="2">
         <v>0</v>
       </c>
       <c r="W20" s="2">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="X20" s="2">
-        <v>95.8</v>
+        <v>82.9</v>
       </c>
       <c r="Y20" s="2">
-        <v>95.8</v>
+        <v>82.9</v>
       </c>
       <c r="Z20" s="2">
         <v>0</v>
@@ -1637,7 +1637,7 @@
         <v>4.9</v>
       </c>
       <c r="E21" s="5">
-        <v>11.9</v>
+        <v>9.8</v>
       </c>
       <c r="F21" s="5">
         <v>0</v>
@@ -1646,22 +1646,22 @@
         <v>0.9</v>
       </c>
       <c r="H21" s="5">
-        <v>0</v>
+        <v>2.45</v>
       </c>
       <c r="I21" s="5">
-        <v>0</v>
+        <v>11.9</v>
       </c>
       <c r="J21" s="5">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="K21" s="5">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="L21" s="5">
         <v>4.9</v>
       </c>
       <c r="M21" s="5">
-        <v>18.4</v>
+        <v>23.8</v>
       </c>
       <c r="N21" s="5">
         <v>0</v>
@@ -1670,34 +1670,34 @@
         <v>0</v>
       </c>
       <c r="P21" s="5">
-        <v>4.9</v>
+        <v>5.3</v>
       </c>
       <c r="Q21" s="5">
-        <v>0</v>
+        <v>9.8</v>
       </c>
       <c r="R21" s="5">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="S21" s="5">
         <v>0</v>
       </c>
       <c r="T21" s="5">
-        <v>4.9</v>
+        <v>2.45</v>
       </c>
       <c r="U21" s="5">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="V21" s="5">
         <v>3.5</v>
       </c>
       <c r="W21" s="5">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="X21" s="5">
-        <v>81.7</v>
+        <v>84.1</v>
       </c>
       <c r="Y21" s="5">
-        <v>81.7</v>
+        <v>84.1</v>
       </c>
       <c r="Z21" s="5">
         <v>0</v>
@@ -1712,13 +1712,13 @@
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2">
-        <v>2.45</v>
+        <v>4.9</v>
       </c>
       <c r="E22" s="2">
-        <v>0</v>
+        <v>19.6</v>
       </c>
       <c r="F22" s="2">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="G22" s="2">
         <v>0.9</v>
@@ -1727,7 +1727,7 @@
         <v>4.9</v>
       </c>
       <c r="I22" s="2">
-        <v>9.2</v>
+        <v>11.9</v>
       </c>
       <c r="J22" s="2">
         <v>0</v>
@@ -1739,31 +1739,31 @@
         <v>4.9</v>
       </c>
       <c r="M22" s="2">
-        <v>9.2</v>
+        <v>23.8</v>
       </c>
       <c r="N22" s="2">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="O22" s="2">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="P22" s="2">
-        <v>2.45</v>
+        <v>0</v>
       </c>
       <c r="Q22" s="2">
-        <v>11.9</v>
+        <v>19.6</v>
       </c>
       <c r="R22" s="2">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="S22" s="2">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="T22" s="2">
-        <v>4.9</v>
+        <v>0</v>
       </c>
       <c r="U22" s="2">
-        <v>0</v>
+        <v>11.9</v>
       </c>
       <c r="V22" s="2">
         <v>0</v>
@@ -1772,10 +1772,10 @@
         <v>0</v>
       </c>
       <c r="X22" s="2">
-        <v>57.8</v>
+        <v>107.6</v>
       </c>
       <c r="Y22" s="2">
-        <v>57.8</v>
+        <v>107.6</v>
       </c>
       <c r="Z22" s="2">
         <v>0</v>
@@ -1793,67 +1793,67 @@
         <v>4.9</v>
       </c>
       <c r="E23" s="5">
-        <v>11.9</v>
+        <v>9.8</v>
       </c>
       <c r="F23" s="5">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="G23" s="5">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="H23" s="5">
         <v>4.9</v>
       </c>
       <c r="I23" s="5">
-        <v>0</v>
+        <v>11.9</v>
       </c>
       <c r="J23" s="5">
-        <v>3.4</v>
+        <v>0</v>
       </c>
       <c r="K23" s="5">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="L23" s="5">
-        <v>2.45</v>
+        <v>0</v>
       </c>
       <c r="M23" s="5">
-        <v>9.2</v>
+        <v>11.9</v>
       </c>
       <c r="N23" s="5">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="O23" s="5">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="P23" s="5">
-        <v>4.9</v>
+        <v>5.3</v>
       </c>
       <c r="Q23" s="5">
-        <v>11.9</v>
+        <v>9.8</v>
       </c>
       <c r="R23" s="5">
         <v>3.5</v>
       </c>
       <c r="S23" s="5">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="T23" s="5">
-        <v>4.9</v>
+        <v>2.45</v>
       </c>
       <c r="U23" s="5">
-        <v>0</v>
+        <v>11.9</v>
       </c>
       <c r="V23" s="5">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="W23" s="5">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="X23" s="5">
-        <v>68.15</v>
+        <v>85.05</v>
       </c>
       <c r="Y23" s="5">
-        <v>68.15</v>
+        <v>85.05</v>
       </c>
       <c r="Z23" s="5">
         <v>0</v>
@@ -1868,25 +1868,25 @@
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2">
-        <v>4.9</v>
+        <v>0</v>
       </c>
       <c r="E24" s="2">
+        <v>9.8</v>
+      </c>
+      <c r="F24" s="2">
+        <v>3.4</v>
+      </c>
+      <c r="G24" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="H24" s="2">
+        <v>4.9</v>
+      </c>
+      <c r="I24" s="2">
         <v>23.8</v>
       </c>
-      <c r="F24" s="2">
-        <v>3.5</v>
-      </c>
-      <c r="G24" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="H24" s="2">
-        <v>4.9</v>
-      </c>
-      <c r="I24" s="2">
-        <v>9.2</v>
-      </c>
       <c r="J24" s="2">
-        <v>3.4</v>
+        <v>0</v>
       </c>
       <c r="K24" s="2">
         <v>0</v>
@@ -1895,7 +1895,7 @@
         <v>4.9</v>
       </c>
       <c r="M24" s="2">
-        <v>18.4</v>
+        <v>11.9</v>
       </c>
       <c r="N24" s="2">
         <v>0</v>
@@ -1904,34 +1904,34 @@
         <v>0</v>
       </c>
       <c r="P24" s="2">
-        <v>4.9</v>
+        <v>0</v>
       </c>
       <c r="Q24" s="2">
         <v>0</v>
       </c>
       <c r="R24" s="2">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="S24" s="2">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="T24" s="2">
-        <v>2.45</v>
+        <v>0</v>
       </c>
       <c r="U24" s="2">
         <v>0</v>
       </c>
       <c r="V24" s="2">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="W24" s="2">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="X24" s="2">
-        <v>89.15</v>
+        <v>60.5</v>
       </c>
       <c r="Y24" s="2">
-        <v>89.15</v>
+        <v>60.5</v>
       </c>
       <c r="Z24" s="2">
         <v>0</v>
@@ -1946,13 +1946,13 @@
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="5">
-        <v>4.9</v>
+        <v>0</v>
       </c>
       <c r="E25" s="5">
-        <v>11.9</v>
+        <v>19.6</v>
       </c>
       <c r="F25" s="5">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="G25" s="5">
         <v>0.9</v>
@@ -1961,19 +1961,19 @@
         <v>4.9</v>
       </c>
       <c r="I25" s="5">
-        <v>9.2</v>
+        <v>0</v>
       </c>
       <c r="J25" s="5">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K25" s="5">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="L25" s="5">
-        <v>4.9</v>
+        <v>2.45</v>
       </c>
       <c r="M25" s="5">
-        <v>9.2</v>
+        <v>0</v>
       </c>
       <c r="N25" s="5">
         <v>0</v>
@@ -1982,34 +1982,34 @@
         <v>0</v>
       </c>
       <c r="P25" s="5">
-        <v>4.9</v>
+        <v>5.3</v>
       </c>
       <c r="Q25" s="5">
-        <v>11.9</v>
+        <v>0</v>
       </c>
       <c r="R25" s="5">
         <v>3.5</v>
       </c>
       <c r="S25" s="5">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="T25" s="5">
         <v>2.45</v>
       </c>
       <c r="U25" s="5">
-        <v>0</v>
+        <v>11.9</v>
       </c>
       <c r="V25" s="5">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="W25" s="5">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="X25" s="5">
-        <v>73.85</v>
+        <v>62.3</v>
       </c>
       <c r="Y25" s="5">
-        <v>73.85</v>
+        <v>62.3</v>
       </c>
       <c r="Z25" s="5">
         <v>0</v>
@@ -2024,46 +2024,46 @@
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2">
-        <v>2.45</v>
+        <v>4.9</v>
       </c>
       <c r="E26" s="2">
-        <v>0</v>
+        <v>19.6</v>
       </c>
       <c r="F26" s="2">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="G26" s="2">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="H26" s="2">
-        <v>2.45</v>
+        <v>0</v>
       </c>
       <c r="I26" s="2">
-        <v>9.2</v>
+        <v>0</v>
       </c>
       <c r="J26" s="2">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K26" s="2">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="L26" s="2">
-        <v>2.45</v>
+        <v>0</v>
       </c>
       <c r="M26" s="2">
-        <v>9.2</v>
+        <v>11.9</v>
       </c>
       <c r="N26" s="2">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="O26" s="2">
         <v>0</v>
       </c>
       <c r="P26" s="2">
-        <v>4.9</v>
+        <v>2.65</v>
       </c>
       <c r="Q26" s="2">
-        <v>0</v>
+        <v>9.8</v>
       </c>
       <c r="R26" s="2">
         <v>3.5</v>
@@ -2072,10 +2072,10 @@
         <v>0</v>
       </c>
       <c r="T26" s="2">
-        <v>0</v>
+        <v>4.9</v>
       </c>
       <c r="U26" s="2">
-        <v>11.5</v>
+        <v>0</v>
       </c>
       <c r="V26" s="2">
         <v>3.5</v>
@@ -2084,10 +2084,10 @@
         <v>0.9</v>
       </c>
       <c r="X26" s="2">
-        <v>61.35</v>
+        <v>69.45</v>
       </c>
       <c r="Y26" s="2">
-        <v>61.35</v>
+        <v>69.45</v>
       </c>
       <c r="Z26" s="2">
         <v>0</v>
@@ -2102,25 +2102,25 @@
       </c>
       <c r="C27" s="5"/>
       <c r="D27" s="5">
-        <v>0</v>
+        <v>4.9</v>
       </c>
       <c r="E27" s="5">
-        <v>11.9</v>
+        <v>9.8</v>
       </c>
       <c r="F27" s="5">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="G27" s="5">
         <v>0.9</v>
       </c>
       <c r="H27" s="5">
-        <v>4.9</v>
+        <v>2.45</v>
       </c>
       <c r="I27" s="5">
-        <v>9.2</v>
+        <v>11.9</v>
       </c>
       <c r="J27" s="5">
-        <v>3.4</v>
+        <v>0</v>
       </c>
       <c r="K27" s="5">
         <v>0</v>
@@ -2129,43 +2129,43 @@
         <v>4.9</v>
       </c>
       <c r="M27" s="5">
-        <v>9.2</v>
+        <v>23.8</v>
       </c>
       <c r="N27" s="5">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="O27" s="5">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="P27" s="5">
-        <v>2.45</v>
+        <v>5.3</v>
       </c>
       <c r="Q27" s="5">
-        <v>11.9</v>
+        <v>9.8</v>
       </c>
       <c r="R27" s="5">
         <v>3.5</v>
       </c>
       <c r="S27" s="5">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="T27" s="5">
-        <v>4.9</v>
+        <v>2.45</v>
       </c>
       <c r="U27" s="5">
-        <v>0</v>
+        <v>11.9</v>
       </c>
       <c r="V27" s="5">
         <v>0</v>
       </c>
       <c r="W27" s="5">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="X27" s="5">
-        <v>67.15</v>
+        <v>101.1</v>
       </c>
       <c r="Y27" s="5">
-        <v>67.15</v>
+        <v>101.1</v>
       </c>
       <c r="Z27" s="5">
         <v>0</v>
@@ -2180,49 +2180,49 @@
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2">
-        <v>4.9</v>
+        <v>2.45</v>
       </c>
       <c r="E28" s="2">
-        <v>11.9</v>
+        <v>9.8</v>
       </c>
       <c r="F28" s="2">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="G28" s="2">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="H28" s="2">
-        <v>4.9</v>
+        <v>0</v>
       </c>
       <c r="I28" s="2">
-        <v>0</v>
+        <v>11.9</v>
       </c>
       <c r="J28" s="2">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K28" s="2">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="L28" s="2">
         <v>4.9</v>
       </c>
       <c r="M28" s="2">
-        <v>18.4</v>
+        <v>23.8</v>
       </c>
       <c r="N28" s="2">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="O28" s="2">
         <v>0.9</v>
       </c>
       <c r="P28" s="2">
-        <v>4.9</v>
+        <v>0</v>
       </c>
       <c r="Q28" s="2">
-        <v>11.9</v>
+        <v>9.8</v>
       </c>
       <c r="R28" s="2">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="S28" s="2">
         <v>0.9</v>
@@ -2231,19 +2231,19 @@
         <v>4.9</v>
       </c>
       <c r="U28" s="2">
-        <v>23</v>
+        <v>11.9</v>
       </c>
       <c r="V28" s="2">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="W28" s="2">
         <v>0</v>
       </c>
       <c r="X28" s="2">
-        <v>106.3</v>
+        <v>92.55</v>
       </c>
       <c r="Y28" s="2">
-        <v>106.3</v>
+        <v>92.55</v>
       </c>
       <c r="Z28" s="2">
         <v>0</v>
@@ -2258,10 +2258,10 @@
       </c>
       <c r="C29" s="5"/>
       <c r="D29" s="5">
-        <v>2.45</v>
+        <v>0</v>
       </c>
       <c r="E29" s="5">
-        <v>0</v>
+        <v>9.8</v>
       </c>
       <c r="F29" s="5">
         <v>0</v>
@@ -2270,7 +2270,7 @@
         <v>0</v>
       </c>
       <c r="H29" s="5">
-        <v>2.45</v>
+        <v>4.9</v>
       </c>
       <c r="I29" s="5">
         <v>0</v>
@@ -2282,46 +2282,46 @@
         <v>0.9</v>
       </c>
       <c r="L29" s="5">
-        <v>2.45</v>
+        <v>0</v>
       </c>
       <c r="M29" s="5">
-        <v>0</v>
+        <v>11.9</v>
       </c>
       <c r="N29" s="5">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="O29" s="5">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="P29" s="5">
-        <v>2.45</v>
+        <v>0</v>
       </c>
       <c r="Q29" s="5">
-        <v>23.8</v>
+        <v>0</v>
       </c>
       <c r="R29" s="5">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="S29" s="5">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="T29" s="5">
         <v>4.9</v>
       </c>
       <c r="U29" s="5">
-        <v>11.5</v>
+        <v>0</v>
       </c>
       <c r="V29" s="5">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="W29" s="5">
         <v>0</v>
       </c>
       <c r="X29" s="5">
-        <v>56.2</v>
+        <v>42.8</v>
       </c>
       <c r="Y29" s="5">
-        <v>56.2</v>
+        <v>42.8</v>
       </c>
       <c r="Z29" s="5">
         <v>0</v>
@@ -2339,67 +2339,67 @@
         <v>4.9</v>
       </c>
       <c r="E30" s="2">
-        <v>0</v>
+        <v>9.8</v>
       </c>
       <c r="F30" s="2">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="G30" s="2">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="H30" s="2">
-        <v>2.45</v>
+        <v>4.9</v>
       </c>
       <c r="I30" s="2">
-        <v>0</v>
+        <v>11.9</v>
       </c>
       <c r="J30" s="2">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="K30" s="2">
         <v>0.9</v>
       </c>
       <c r="L30" s="2">
-        <v>0</v>
+        <v>4.9</v>
       </c>
       <c r="M30" s="2">
-        <v>9.2</v>
+        <v>11.9</v>
       </c>
       <c r="N30" s="2">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="O30" s="2">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="P30" s="2">
-        <v>2.45</v>
+        <v>5.3</v>
       </c>
       <c r="Q30" s="2">
-        <v>11.9</v>
+        <v>0</v>
       </c>
       <c r="R30" s="2">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="S30" s="2">
         <v>0</v>
       </c>
       <c r="T30" s="2">
-        <v>0</v>
+        <v>4.9</v>
       </c>
       <c r="U30" s="2">
-        <v>11.5</v>
+        <v>11.9</v>
       </c>
       <c r="V30" s="2">
         <v>3.5</v>
       </c>
       <c r="W30" s="2">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="X30" s="2">
-        <v>54.7</v>
+        <v>83.5</v>
       </c>
       <c r="Y30" s="2">
-        <v>54.7</v>
+        <v>83.5</v>
       </c>
       <c r="Z30" s="2">
         <v>0</v>
@@ -2417,67 +2417,67 @@
         <v>4.9</v>
       </c>
       <c r="E31" s="5">
-        <v>11.9</v>
+        <v>9.8</v>
       </c>
       <c r="F31" s="5">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="G31" s="5">
         <v>0</v>
       </c>
       <c r="H31" s="5">
-        <v>4.9</v>
+        <v>2.45</v>
       </c>
       <c r="I31" s="5">
-        <v>0</v>
+        <v>11.9</v>
       </c>
       <c r="J31" s="5">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="K31" s="5">
         <v>0.9</v>
       </c>
       <c r="L31" s="5">
-        <v>2.45</v>
+        <v>0</v>
       </c>
       <c r="M31" s="5">
-        <v>9.2</v>
+        <v>11.9</v>
       </c>
       <c r="N31" s="5">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="O31" s="5">
         <v>0.9</v>
       </c>
       <c r="P31" s="5">
-        <v>4.9</v>
+        <v>0</v>
       </c>
       <c r="Q31" s="5">
-        <v>11.9</v>
+        <v>0</v>
       </c>
       <c r="R31" s="5">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="S31" s="5">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="T31" s="5">
         <v>4.9</v>
       </c>
       <c r="U31" s="5">
-        <v>0</v>
+        <v>11.9</v>
       </c>
       <c r="V31" s="5">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="W31" s="5">
         <v>0</v>
       </c>
       <c r="X31" s="5">
-        <v>63.85</v>
+        <v>70.85</v>
       </c>
       <c r="Y31" s="5">
-        <v>63.85</v>
+        <v>70.85</v>
       </c>
       <c r="Z31" s="5">
         <v>0</v>
@@ -2492,34 +2492,34 @@
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2">
-        <v>4.9</v>
+        <v>0</v>
       </c>
       <c r="E32" s="2">
         <v>0</v>
       </c>
       <c r="F32" s="2">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="G32" s="2">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="H32" s="2">
-        <v>2.45</v>
+        <v>0</v>
       </c>
       <c r="I32" s="2">
-        <v>0</v>
+        <v>11.9</v>
       </c>
       <c r="J32" s="2">
         <v>0</v>
       </c>
       <c r="K32" s="2">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="L32" s="2">
-        <v>2.45</v>
+        <v>4.9</v>
       </c>
       <c r="M32" s="2">
-        <v>9.2</v>
+        <v>0</v>
       </c>
       <c r="N32" s="2">
         <v>0</v>
@@ -2528,34 +2528,34 @@
         <v>0</v>
       </c>
       <c r="P32" s="2">
-        <v>2.45</v>
+        <v>5.3</v>
       </c>
       <c r="Q32" s="2">
-        <v>0</v>
+        <v>9.8</v>
       </c>
       <c r="R32" s="2">
         <v>3.5</v>
       </c>
       <c r="S32" s="2">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="T32" s="2">
-        <v>0</v>
+        <v>4.9</v>
       </c>
       <c r="U32" s="2">
-        <v>0</v>
+        <v>11.9</v>
       </c>
       <c r="V32" s="2">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="W32" s="2">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="X32" s="2">
-        <v>31.15</v>
+        <v>60</v>
       </c>
       <c r="Y32" s="2">
-        <v>31.15</v>
+        <v>60</v>
       </c>
       <c r="Z32" s="2">
         <v>0</v>
@@ -2573,46 +2573,46 @@
         <v>4.9</v>
       </c>
       <c r="E33" s="5">
-        <v>11.9</v>
+        <v>9.8</v>
       </c>
       <c r="F33" s="5">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="G33" s="5">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="H33" s="5">
-        <v>0</v>
+        <v>2.45</v>
       </c>
       <c r="I33" s="5">
-        <v>18.4</v>
+        <v>0</v>
       </c>
       <c r="J33" s="5">
-        <v>3.4</v>
+        <v>0</v>
       </c>
       <c r="K33" s="5">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="L33" s="5">
-        <v>4.9</v>
+        <v>2.45</v>
       </c>
       <c r="M33" s="5">
         <v>0</v>
       </c>
       <c r="N33" s="5">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="O33" s="5">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="P33" s="5">
-        <v>4.9</v>
+        <v>2.65</v>
       </c>
       <c r="Q33" s="5">
-        <v>11.9</v>
+        <v>9.8</v>
       </c>
       <c r="R33" s="5">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="S33" s="5">
         <v>0</v>
@@ -2621,19 +2621,19 @@
         <v>2.45</v>
       </c>
       <c r="U33" s="5">
-        <v>11.5</v>
+        <v>0</v>
       </c>
       <c r="V33" s="5">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="W33" s="5">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="X33" s="5">
-        <v>85.65</v>
+        <v>44</v>
       </c>
       <c r="Y33" s="5">
-        <v>85.65</v>
+        <v>44</v>
       </c>
       <c r="Z33" s="5">
         <v>0</v>
@@ -2648,70 +2648,70 @@
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2">
-        <v>4.9</v>
+        <v>0</v>
       </c>
       <c r="E34" s="2">
-        <v>0</v>
+        <v>9.8</v>
       </c>
       <c r="F34" s="2">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="G34" s="2">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="H34" s="2">
-        <v>4.9</v>
+        <v>2.45</v>
       </c>
       <c r="I34" s="2">
-        <v>9.2</v>
+        <v>11.9</v>
       </c>
       <c r="J34" s="2">
-        <v>3.4</v>
+        <v>0</v>
       </c>
       <c r="K34" s="2">
         <v>0</v>
       </c>
       <c r="L34" s="2">
-        <v>2.45</v>
+        <v>0</v>
       </c>
       <c r="M34" s="2">
-        <v>9.2</v>
+        <v>11.9</v>
       </c>
       <c r="N34" s="2">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="O34" s="2">
         <v>0</v>
       </c>
       <c r="P34" s="2">
-        <v>4.9</v>
+        <v>0</v>
       </c>
       <c r="Q34" s="2">
+        <v>9.8</v>
+      </c>
+      <c r="R34" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="S34" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="T34" s="2">
+        <v>4.9</v>
+      </c>
+      <c r="U34" s="2">
         <v>23.8</v>
       </c>
-      <c r="R34" s="2">
-        <v>0</v>
-      </c>
-      <c r="S34" s="2">
-        <v>0</v>
-      </c>
-      <c r="T34" s="2">
-        <v>4.9</v>
-      </c>
-      <c r="U34" s="2">
-        <v>11.5</v>
-      </c>
       <c r="V34" s="2">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="W34" s="2">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="X34" s="2">
-        <v>80.05</v>
+        <v>90.15</v>
       </c>
       <c r="Y34" s="2">
-        <v>80.05</v>
+        <v>90.15</v>
       </c>
       <c r="Z34" s="2">
         <v>0</v>
@@ -2726,22 +2726,22 @@
       </c>
       <c r="C35" s="5"/>
       <c r="D35" s="5">
-        <v>2.45</v>
+        <v>4.9</v>
       </c>
       <c r="E35" s="5">
-        <v>11.9</v>
+        <v>9.8</v>
       </c>
       <c r="F35" s="5">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="G35" s="5">
         <v>0</v>
       </c>
       <c r="H35" s="5">
-        <v>4.9</v>
+        <v>2.45</v>
       </c>
       <c r="I35" s="5">
-        <v>9.2</v>
+        <v>0</v>
       </c>
       <c r="J35" s="5">
         <v>0</v>
@@ -2753,43 +2753,43 @@
         <v>2.45</v>
       </c>
       <c r="M35" s="5">
-        <v>0</v>
+        <v>11.9</v>
       </c>
       <c r="N35" s="5">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="O35" s="5">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="P35" s="5">
-        <v>2.45</v>
+        <v>5.3</v>
       </c>
       <c r="Q35" s="5">
-        <v>11.9</v>
+        <v>9.8</v>
       </c>
       <c r="R35" s="5">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="S35" s="5">
         <v>0.9</v>
       </c>
       <c r="T35" s="5">
-        <v>2.45</v>
+        <v>4.9</v>
       </c>
       <c r="U35" s="5">
-        <v>11.5</v>
+        <v>0</v>
       </c>
       <c r="V35" s="5">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="W35" s="5">
         <v>0</v>
       </c>
       <c r="X35" s="5">
-        <v>68</v>
+        <v>59.4</v>
       </c>
       <c r="Y35" s="5">
-        <v>68</v>
+        <v>59.4</v>
       </c>
       <c r="Z35" s="5">
         <v>0</v>
@@ -2807,46 +2807,46 @@
         <v>2.45</v>
       </c>
       <c r="E36" s="2">
-        <v>0</v>
+        <v>9.8</v>
       </c>
       <c r="F36" s="2">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="G36" s="2">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="H36" s="2">
         <v>4.9</v>
       </c>
       <c r="I36" s="2">
-        <v>9.2</v>
+        <v>11.9</v>
       </c>
       <c r="J36" s="2">
         <v>0</v>
       </c>
       <c r="K36" s="2">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="L36" s="2">
-        <v>0</v>
+        <v>4.9</v>
       </c>
       <c r="M36" s="2">
-        <v>9.2</v>
+        <v>0</v>
       </c>
       <c r="N36" s="2">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="O36" s="2">
         <v>0.9</v>
       </c>
       <c r="P36" s="2">
-        <v>0</v>
+        <v>5.3</v>
       </c>
       <c r="Q36" s="2">
-        <v>11.9</v>
+        <v>9.8</v>
       </c>
       <c r="R36" s="2">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="S36" s="2">
         <v>0</v>
@@ -2855,19 +2855,19 @@
         <v>2.45</v>
       </c>
       <c r="U36" s="2">
-        <v>11.5</v>
+        <v>11.9</v>
       </c>
       <c r="V36" s="2">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="W36" s="2">
         <v>0</v>
       </c>
       <c r="X36" s="2">
-        <v>60.4</v>
+        <v>75.5</v>
       </c>
       <c r="Y36" s="2">
-        <v>60.4</v>
+        <v>75.5</v>
       </c>
       <c r="Z36" s="2">
         <v>0</v>
@@ -2882,70 +2882,70 @@
       </c>
       <c r="C37" s="5"/>
       <c r="D37" s="5">
-        <v>0</v>
+        <v>2.45</v>
       </c>
       <c r="E37" s="5">
-        <v>0</v>
+        <v>19.6</v>
       </c>
       <c r="F37" s="5">
         <v>0</v>
       </c>
       <c r="G37" s="5">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="H37" s="5">
         <v>4.9</v>
       </c>
       <c r="I37" s="5">
-        <v>0</v>
+        <v>11.9</v>
       </c>
       <c r="J37" s="5">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K37" s="5">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="L37" s="5">
         <v>4.9</v>
       </c>
       <c r="M37" s="5">
-        <v>9.2</v>
+        <v>11.9</v>
       </c>
       <c r="N37" s="5">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="O37" s="5">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="P37" s="5">
-        <v>0</v>
+        <v>5.3</v>
       </c>
       <c r="Q37" s="5">
-        <v>11.9</v>
+        <v>9.8</v>
       </c>
       <c r="R37" s="5">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="S37" s="5">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="T37" s="5">
-        <v>4.9</v>
+        <v>2.45</v>
       </c>
       <c r="U37" s="5">
-        <v>23</v>
+        <v>23.8</v>
       </c>
       <c r="V37" s="5">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="W37" s="5">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="X37" s="5">
-        <v>71.9</v>
+        <v>109.2</v>
       </c>
       <c r="Y37" s="5">
-        <v>71.9</v>
+        <v>109.2</v>
       </c>
       <c r="Z37" s="5">
         <v>0</v>
@@ -2963,67 +2963,67 @@
         <v>4.9</v>
       </c>
       <c r="E38" s="2">
-        <v>0</v>
+        <v>9.8</v>
       </c>
       <c r="F38" s="2">
         <v>0</v>
       </c>
       <c r="G38" s="2">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="H38" s="2">
         <v>4.9</v>
       </c>
       <c r="I38" s="2">
-        <v>9.2</v>
+        <v>0</v>
       </c>
       <c r="J38" s="2">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K38" s="2">
         <v>0.9</v>
       </c>
       <c r="L38" s="2">
-        <v>4.9</v>
+        <v>2.45</v>
       </c>
       <c r="M38" s="2">
-        <v>9.2</v>
+        <v>11.9</v>
       </c>
       <c r="N38" s="2">
         <v>0</v>
       </c>
       <c r="O38" s="2">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="P38" s="2">
-        <v>4.9</v>
+        <v>5.3</v>
       </c>
       <c r="Q38" s="2">
-        <v>0</v>
+        <v>9.8</v>
       </c>
       <c r="R38" s="2">
         <v>3.5</v>
       </c>
       <c r="S38" s="2">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="T38" s="2">
         <v>2.45</v>
       </c>
       <c r="U38" s="2">
-        <v>11.5</v>
+        <v>11.9</v>
       </c>
       <c r="V38" s="2">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="W38" s="2">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="X38" s="2">
-        <v>65.05</v>
+        <v>73.1</v>
       </c>
       <c r="Y38" s="2">
-        <v>65.05</v>
+        <v>73.1</v>
       </c>
       <c r="Z38" s="2">
         <v>0</v>
@@ -3036,25 +3036,25 @@
       <c r="B39" s="6"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2">
-        <v>4.9</v>
+        <v>2.45</v>
       </c>
       <c r="E39" s="2">
-        <v>0</v>
+        <v>9.8</v>
       </c>
       <c r="F39" s="2">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="G39" s="2">
         <v>0</v>
       </c>
       <c r="H39" s="2">
-        <v>2.45</v>
+        <v>4.9</v>
       </c>
       <c r="I39" s="2">
-        <v>18.4</v>
+        <v>11.9</v>
       </c>
       <c r="J39" s="2">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="K39" s="2">
         <v>0.9</v>
@@ -3063,31 +3063,31 @@
         <v>4.9</v>
       </c>
       <c r="M39" s="2">
-        <v>9.2</v>
+        <v>11.9</v>
       </c>
       <c r="N39" s="2">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="O39" s="2">
         <v>0</v>
       </c>
       <c r="P39" s="2">
-        <v>4.9</v>
+        <v>5.3</v>
       </c>
       <c r="Q39" s="2">
-        <v>11.9</v>
+        <v>19.6</v>
       </c>
       <c r="R39" s="2">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="S39" s="2">
         <v>0</v>
       </c>
       <c r="T39" s="2">
-        <v>0</v>
+        <v>2.45</v>
       </c>
       <c r="U39" s="2">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="V39" s="2">
         <v>3.5</v>
@@ -3096,10 +3096,10 @@
         <v>0.9</v>
       </c>
       <c r="X39" s="2">
-        <v>91.95</v>
+        <v>85.4</v>
       </c>
       <c r="Y39" s="2">
-        <v>91.95</v>
+        <v>85.4</v>
       </c>
       <c r="Z39" s="2">
         <v>0</v>
@@ -3110,73 +3110,73 @@
         <v>48</v>
       </c>
       <c r="D40">
+        <v>112.7</v>
+      </c>
+      <c r="E40">
+        <v>303.8</v>
+      </c>
+      <c r="F40">
+        <v>68</v>
+      </c>
+      <c r="G40">
+        <v>15.3</v>
+      </c>
+      <c r="H40">
+        <v>100.45</v>
+      </c>
+      <c r="I40">
+        <v>321.3</v>
+      </c>
+      <c r="J40">
+        <v>52.5</v>
+      </c>
+      <c r="K40">
+        <v>14.4</v>
+      </c>
+      <c r="L40">
+        <v>117.6</v>
+      </c>
+      <c r="M40">
+        <v>368.9</v>
+      </c>
+      <c r="N40">
+        <v>61.2</v>
+      </c>
+      <c r="O40">
+        <v>15.3</v>
+      </c>
+      <c r="P40">
+        <v>121.9</v>
+      </c>
+      <c r="Q40">
+        <v>294</v>
+      </c>
+      <c r="R40">
+        <v>59.5</v>
+      </c>
+      <c r="S40">
+        <v>10.8</v>
+      </c>
+      <c r="T40">
         <v>124.95</v>
       </c>
-      <c r="E40">
-        <v>285.6</v>
-      </c>
-      <c r="F40">
-        <v>63</v>
-      </c>
-      <c r="G40">
-        <v>17.1</v>
-      </c>
-      <c r="H40">
-        <v>120.05</v>
-      </c>
-      <c r="I40">
-        <v>257.6</v>
-      </c>
-      <c r="J40">
-        <v>57.8</v>
-      </c>
-      <c r="K40">
-        <v>16.2</v>
-      </c>
-      <c r="L40">
-        <v>122.5</v>
-      </c>
-      <c r="M40">
-        <v>266.8</v>
-      </c>
-      <c r="N40">
-        <v>42</v>
-      </c>
-      <c r="O40">
-        <v>10.8</v>
-      </c>
-      <c r="P40">
-        <v>117.6</v>
-      </c>
-      <c r="Q40">
-        <v>345.1</v>
-      </c>
-      <c r="R40">
-        <v>84</v>
-      </c>
-      <c r="S40">
-        <v>12.6</v>
-      </c>
-      <c r="T40">
-        <v>102.9</v>
-      </c>
       <c r="U40">
-        <v>310.5</v>
+        <v>321.3</v>
       </c>
       <c r="V40">
-        <v>45.5</v>
+        <v>73.5</v>
       </c>
       <c r="W40">
-        <v>9.9</v>
+        <v>15.3</v>
       </c>
       <c r="X40">
-        <v>2412.5</v>
+        <v>2572.7</v>
       </c>
       <c r="Y40">
-        <v>2412.5</v>
+        <v>2572.7</v>
       </c>
       <c r="Z40">
-        <v>0</v>
+        <v>16.8</v>
       </c>
     </row>
   </sheetData>
